--- a/planilha/todas_demandas.xlsx
+++ b/planilha/todas_demandas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="439">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -52,16 +52,145 @@
     <t>agendada</t>
   </si>
   <si>
-    <t>13-02-2023</t>
-  </si>
-  <si>
-    <t>15-02-2023</t>
+    <t>17-02-2023</t>
+  </si>
+  <si>
+    <t>22-02-2023</t>
+  </si>
+  <si>
+    <t>23-02-2023</t>
+  </si>
+  <si>
+    <t>24-02-2023</t>
+  </si>
+  <si>
+    <t>06-03-2023</t>
+  </si>
+  <si>
+    <t>13-03-2023</t>
+  </si>
+  <si>
+    <t>28-03-2023</t>
+  </si>
+  <si>
+    <t>31-03-2023</t>
+  </si>
+  <si>
+    <t>417823 - PREMIUM SAÚDE S.A</t>
   </si>
   <si>
     <t>422380 - YOU ASSISTÊNCIA MÉDICA LTDA</t>
   </si>
   <si>
-    <t>417823 - PREMIUM SAÚDE S.A</t>
+    <t>13/02/2023  10:59:48</t>
+  </si>
+  <si>
+    <t>13/02/2023  17:53:42</t>
+  </si>
+  <si>
+    <t>14/02/2023  15:30:29</t>
+  </si>
+  <si>
+    <t>15/02/2023  09:41:19</t>
+  </si>
+  <si>
+    <t>15/02/2023  12:01:13</t>
+  </si>
+  <si>
+    <t>15/02/2023  14:33:41</t>
+  </si>
+  <si>
+    <t>15/02/2023  16:14:59</t>
+  </si>
+  <si>
+    <t>16/02/2023  12:41:39</t>
+  </si>
+  <si>
+    <t>16/02/2023  17:07:05</t>
+  </si>
+  <si>
+    <t>16/02/2023  19:46:52</t>
+  </si>
+  <si>
+    <t>17/02/2023  10:04:05</t>
+  </si>
+  <si>
+    <t>17/02/2023  10:07:24</t>
+  </si>
+  <si>
+    <t>17/02/2023  11:39:25</t>
+  </si>
+  <si>
+    <t>17/02/2023  12:35:38</t>
+  </si>
+  <si>
+    <t>16/02/2023  20:31:55</t>
+  </si>
+  <si>
+    <t>17/02/2023  06:41:33</t>
+  </si>
+  <si>
+    <t>21/02/2023  09:33:04</t>
+  </si>
+  <si>
+    <t>22/02/2023  13:20:30</t>
+  </si>
+  <si>
+    <t>07/02/2023  10:01:03</t>
+  </si>
+  <si>
+    <t>07/02/2023  10:11:49</t>
+  </si>
+  <si>
+    <t>07/02/2023  10:12:34</t>
+  </si>
+  <si>
+    <t>07/02/2023  15:46:34</t>
+  </si>
+  <si>
+    <t>08/02/2023  09:29:56</t>
+  </si>
+  <si>
+    <t>08/02/2023  10:14:46</t>
+  </si>
+  <si>
+    <t>09/02/2023  11:06:30</t>
+  </si>
+  <si>
+    <t>09/02/2023  11:47:50</t>
+  </si>
+  <si>
+    <t>07/02/2023  11:41:34</t>
+  </si>
+  <si>
+    <t>08/02/2023  09:40:38</t>
+  </si>
+  <si>
+    <t>08/02/2023  10:04:41</t>
+  </si>
+  <si>
+    <t>08/02/2023  14:58:40</t>
+  </si>
+  <si>
+    <t>09/02/2023  07:50:59</t>
+  </si>
+  <si>
+    <t>09/02/2023  08:54:50</t>
+  </si>
+  <si>
+    <t>09/02/2023  10:39:59</t>
+  </si>
+  <si>
+    <t>09/02/2023  10:47:15</t>
+  </si>
+  <si>
+    <t>09/02/2023  10:53:37</t>
+  </si>
+  <si>
+    <t>09/02/2023  10:53:48</t>
+  </si>
+  <si>
+    <t>09/02/2023  12:18:15</t>
   </si>
   <si>
     <t>09/02/2023  14:05:26</t>
@@ -79,94 +208,598 @@
     <t>13/02/2023  17:11:27</t>
   </si>
   <si>
-    <t>13/02/2023  17:53:42</t>
-  </si>
-  <si>
-    <t>01/02/2023  11:37:37</t>
-  </si>
-  <si>
-    <t>01/02/2023  13:52:05</t>
-  </si>
-  <si>
-    <t>01/02/2023  14:14:32</t>
-  </si>
-  <si>
-    <t>01/02/2023  14:20:12</t>
-  </si>
-  <si>
-    <t>01/02/2023  14:24:54</t>
-  </si>
-  <si>
-    <t>01/02/2023  16:54:10</t>
-  </si>
-  <si>
-    <t>01/02/2023  17:16:29</t>
-  </si>
-  <si>
-    <t>02/02/2023  13:12:25</t>
-  </si>
-  <si>
-    <t>02/02/2023  15:57:17</t>
-  </si>
-  <si>
-    <t>03/02/2023  09:15:42</t>
-  </si>
-  <si>
-    <t>03/02/2023  10:01:59</t>
-  </si>
-  <si>
-    <t>03/02/2023  12:35:48</t>
-  </si>
-  <si>
-    <t>03/02/2023  17:05:41</t>
-  </si>
-  <si>
-    <t>06/02/2023  10:30:27</t>
-  </si>
-  <si>
-    <t>06/02/2023  11:33:36</t>
-  </si>
-  <si>
-    <t>06/02/2023  14:20:31</t>
-  </si>
-  <si>
-    <t>06/02/2023  14:31:22</t>
-  </si>
-  <si>
-    <t>07/02/2023  10:01:03</t>
-  </si>
-  <si>
-    <t>07/02/2023  10:11:49</t>
-  </si>
-  <si>
-    <t>07/02/2023  10:12:34</t>
-  </si>
-  <si>
-    <t>07/02/2023  15:46:34</t>
-  </si>
-  <si>
-    <t>08/02/2023  09:29:56</t>
-  </si>
-  <si>
-    <t>08/02/2023  10:14:46</t>
-  </si>
-  <si>
-    <t>09/02/2023  11:06:30</t>
-  </si>
-  <si>
-    <t>09/02/2023  11:47:50</t>
-  </si>
-  <si>
-    <t>13/02/2023  10:59:48</t>
-  </si>
-  <si>
-    <t>14/02/2023  15:30:29</t>
-  </si>
-  <si>
-    <t>15/02/2023  09:41:19</t>
-  </si>
-  <si>
-    <t>15/02/2023  12:01:13</t>
+    <t>14/02/2023  10:53:49</t>
+  </si>
+  <si>
+    <t>14/02/2023  15:08:37</t>
+  </si>
+  <si>
+    <t>15/02/2023  11:48:42</t>
+  </si>
+  <si>
+    <t>15/02/2023  14:22:15</t>
+  </si>
+  <si>
+    <t>15/02/2023  15:20:20</t>
+  </si>
+  <si>
+    <t>15/02/2023  16:31:37</t>
+  </si>
+  <si>
+    <t>15/02/2023  18:20:03</t>
+  </si>
+  <si>
+    <t>16/02/2023  10:10:21</t>
+  </si>
+  <si>
+    <t>16/02/2023  12:12:36</t>
+  </si>
+  <si>
+    <t>22/02/2023  12:31:52</t>
+  </si>
+  <si>
+    <t>23/02/2023  14:17:35</t>
+  </si>
+  <si>
+    <t>23/02/2023  14:37:01</t>
+  </si>
+  <si>
+    <t>23/02/2023  14:43:35</t>
+  </si>
+  <si>
+    <t>23/02/2023  16:18:56</t>
+  </si>
+  <si>
+    <t>23/02/2023  18:13:42</t>
+  </si>
+  <si>
+    <t>24/02/2023  09:52:10</t>
+  </si>
+  <si>
+    <t>24/02/2023  11:28:04</t>
+  </si>
+  <si>
+    <t>24/02/2023  11:57:39</t>
+  </si>
+  <si>
+    <t>24/02/2023  15:00:12</t>
+  </si>
+  <si>
+    <t>23/02/2023  14:59:27</t>
+  </si>
+  <si>
+    <t>24/02/2023  12:53:50</t>
+  </si>
+  <si>
+    <t>24/02/2023  14:13:14</t>
+  </si>
+  <si>
+    <t>24/02/2023  14:59:12</t>
+  </si>
+  <si>
+    <t>27/02/2023  12:19:03</t>
+  </si>
+  <si>
+    <t>27/02/2023  13:06:41</t>
+  </si>
+  <si>
+    <t>27/02/2023  19:02:25</t>
+  </si>
+  <si>
+    <t>28/02/2023  12:36:49</t>
+  </si>
+  <si>
+    <t>28/02/2023  14:59:02</t>
+  </si>
+  <si>
+    <t>28/02/2023  15:17:52</t>
+  </si>
+  <si>
+    <t>01/03/2023  10:58:46</t>
+  </si>
+  <si>
+    <t>01/03/2023  11:06:55</t>
+  </si>
+  <si>
+    <t>01/03/2023  13:57:24</t>
+  </si>
+  <si>
+    <t>01/03/2023  15:35:38</t>
+  </si>
+  <si>
+    <t>01/03/2023  21:25:42</t>
+  </si>
+  <si>
+    <t>02/03/2023  10:03:17</t>
+  </si>
+  <si>
+    <t>02/03/2023  10:20:14</t>
+  </si>
+  <si>
+    <t>02/03/2023  10:23:19</t>
+  </si>
+  <si>
+    <t>02/03/2023  15:12:29</t>
+  </si>
+  <si>
+    <t>02/03/2023  18:31:59</t>
+  </si>
+  <si>
+    <t>02/03/2023  19:03:38</t>
+  </si>
+  <si>
+    <t>02/03/2023  19:04:21</t>
+  </si>
+  <si>
+    <t>03/03/2023  12:39:50</t>
+  </si>
+  <si>
+    <t>03/03/2023  15:42:25</t>
+  </si>
+  <si>
+    <t>03/03/2023  16:26:15</t>
+  </si>
+  <si>
+    <t>03/03/2023  18:05:12</t>
+  </si>
+  <si>
+    <t>27/02/2023  08:52:53</t>
+  </si>
+  <si>
+    <t>27/02/2023  13:41:12</t>
+  </si>
+  <si>
+    <t>27/02/2023  14:18:57</t>
+  </si>
+  <si>
+    <t>27/02/2023  17:50:50</t>
+  </si>
+  <si>
+    <t>28/02/2023  16:34:18</t>
+  </si>
+  <si>
+    <t>01/03/2023  13:44:26</t>
+  </si>
+  <si>
+    <t>01/03/2023  15:25:43</t>
+  </si>
+  <si>
+    <t>01/03/2023  15:28:35</t>
+  </si>
+  <si>
+    <t>02/03/2023  13:02:25</t>
+  </si>
+  <si>
+    <t>02/03/2023  15:05:54</t>
+  </si>
+  <si>
+    <t>02/03/2023  17:41:35</t>
+  </si>
+  <si>
+    <t>03/03/2023  09:14:37</t>
+  </si>
+  <si>
+    <t>03/03/2023  13:44:58</t>
+  </si>
+  <si>
+    <t>03/03/2023  14:24:02</t>
+  </si>
+  <si>
+    <t>03/03/2023  17:10:10</t>
+  </si>
+  <si>
+    <t>06/03/2023  13:06:59</t>
+  </si>
+  <si>
+    <t>06/03/2023  15:55:51</t>
+  </si>
+  <si>
+    <t>07/03/2023  19:16:59</t>
+  </si>
+  <si>
+    <t>08/03/2023  14:58:58</t>
+  </si>
+  <si>
+    <t>08/03/2023  16:26:21</t>
+  </si>
+  <si>
+    <t>09/03/2023  13:27:57</t>
+  </si>
+  <si>
+    <t>09/03/2023  15:10:18</t>
+  </si>
+  <si>
+    <t>13/03/2023  08:33:36</t>
+  </si>
+  <si>
+    <t>13/03/2023  13:04:44</t>
+  </si>
+  <si>
+    <t>13/03/2023  13:57:05</t>
+  </si>
+  <si>
+    <t>06/03/2023  13:37:05</t>
+  </si>
+  <si>
+    <t>06/03/2023  17:01:48</t>
+  </si>
+  <si>
+    <t>06/03/2023  18:33:42</t>
+  </si>
+  <si>
+    <t>06/03/2023  18:37:18</t>
+  </si>
+  <si>
+    <t>07/03/2023  08:03:24</t>
+  </si>
+  <si>
+    <t>07/03/2023  09:20:02</t>
+  </si>
+  <si>
+    <t>07/03/2023  15:12:06</t>
+  </si>
+  <si>
+    <t>07/03/2023  17:42:27</t>
+  </si>
+  <si>
+    <t>07/03/2023  18:44:44</t>
+  </si>
+  <si>
+    <t>08/03/2023  00:51:45</t>
+  </si>
+  <si>
+    <t>08/03/2023  09:50:47</t>
+  </si>
+  <si>
+    <t>08/03/2023  11:38:08</t>
+  </si>
+  <si>
+    <t>09/03/2023  10:39:05</t>
+  </si>
+  <si>
+    <t>09/03/2023  12:18:02</t>
+  </si>
+  <si>
+    <t>10/03/2023  08:29:28</t>
+  </si>
+  <si>
+    <t>11/03/2023  19:53:35</t>
+  </si>
+  <si>
+    <t>13/03/2023  09:58:32</t>
+  </si>
+  <si>
+    <t>13/03/2023  11:08:23</t>
+  </si>
+  <si>
+    <t>13/03/2023  14:38:01</t>
+  </si>
+  <si>
+    <t>13/03/2023  14:47:05</t>
+  </si>
+  <si>
+    <t>14/03/2023  09:40:54</t>
+  </si>
+  <si>
+    <t>14/03/2023  13:39:59</t>
+  </si>
+  <si>
+    <t>14/03/2023  16:58:58</t>
+  </si>
+  <si>
+    <t>15/03/2023  11:57:12</t>
+  </si>
+  <si>
+    <t>15/03/2023  12:45:34</t>
+  </si>
+  <si>
+    <t>15/03/2023  15:54:50</t>
+  </si>
+  <si>
+    <t>15/03/2023  16:35:49</t>
+  </si>
+  <si>
+    <t>17/03/2023  08:26:41</t>
+  </si>
+  <si>
+    <t>17/03/2023  08:46:06</t>
+  </si>
+  <si>
+    <t>17/03/2023  10:57:21</t>
+  </si>
+  <si>
+    <t>20/03/2023  10:04:20</t>
+  </si>
+  <si>
+    <t>20/03/2023  12:16:50</t>
+  </si>
+  <si>
+    <t>20/03/2023  19:57:51</t>
+  </si>
+  <si>
+    <t>21/03/2023  09:18:38</t>
+  </si>
+  <si>
+    <t>21/03/2023  16:15:34</t>
+  </si>
+  <si>
+    <t>22/03/2023  09:53:40</t>
+  </si>
+  <si>
+    <t>22/03/2023  10:38:12</t>
+  </si>
+  <si>
+    <t>23/03/2023  18:51:49</t>
+  </si>
+  <si>
+    <t>24/03/2023  12:38:18</t>
+  </si>
+  <si>
+    <t>24/03/2023  13:26:50</t>
+  </si>
+  <si>
+    <t>24/03/2023  15:32:36</t>
+  </si>
+  <si>
+    <t>24/03/2023  15:34:35</t>
+  </si>
+  <si>
+    <t>25/03/2023  09:31:41</t>
+  </si>
+  <si>
+    <t>27/03/2023  11:42:35</t>
+  </si>
+  <si>
+    <t>14/03/2023  18:48:10</t>
+  </si>
+  <si>
+    <t>15/03/2023  10:45:40</t>
+  </si>
+  <si>
+    <t>15/03/2023  11:30:06</t>
+  </si>
+  <si>
+    <t>15/03/2023  13:26:57</t>
+  </si>
+  <si>
+    <t>15/03/2023  18:06:19</t>
+  </si>
+  <si>
+    <t>15/03/2023  19:10:53</t>
+  </si>
+  <si>
+    <t>16/03/2023  10:02:45</t>
+  </si>
+  <si>
+    <t>16/03/2023  11:15:06</t>
+  </si>
+  <si>
+    <t>16/03/2023  11:38:37</t>
+  </si>
+  <si>
+    <t>16/03/2023  12:24:00</t>
+  </si>
+  <si>
+    <t>16/03/2023  14:54:33</t>
+  </si>
+  <si>
+    <t>16/03/2023  19:25:37</t>
+  </si>
+  <si>
+    <t>16/03/2023  20:36:33</t>
+  </si>
+  <si>
+    <t>17/03/2023  14:34:06</t>
+  </si>
+  <si>
+    <t>17/03/2023  15:20:46</t>
+  </si>
+  <si>
+    <t>17/03/2023  15:48:42</t>
+  </si>
+  <si>
+    <t>20/03/2023  15:28:38</t>
+  </si>
+  <si>
+    <t>20/03/2023  16:23:23</t>
+  </si>
+  <si>
+    <t>20/03/2023  16:41:54</t>
+  </si>
+  <si>
+    <t>21/03/2023  10:34:13</t>
+  </si>
+  <si>
+    <t>21/03/2023  14:37:30</t>
+  </si>
+  <si>
+    <t>21/03/2023  15:04:24</t>
+  </si>
+  <si>
+    <t>21/03/2023  16:20:47</t>
+  </si>
+  <si>
+    <t>21/03/2023  18:56:25</t>
+  </si>
+  <si>
+    <t>22/03/2023  14:46:57</t>
+  </si>
+  <si>
+    <t>22/03/2023  14:56:14</t>
+  </si>
+  <si>
+    <t>23/03/2023  14:07:52</t>
+  </si>
+  <si>
+    <t>24/03/2023  12:36:10</t>
+  </si>
+  <si>
+    <t>24/03/2023  14:51:18</t>
+  </si>
+  <si>
+    <t>24/03/2023  16:03:57</t>
+  </si>
+  <si>
+    <t>27/03/2023  10:12:21</t>
+  </si>
+  <si>
+    <t>27/03/2023  13:27:06</t>
+  </si>
+  <si>
+    <t>27/03/2023  17:25:16</t>
+  </si>
+  <si>
+    <t>27/03/2023  19:42:18</t>
+  </si>
+  <si>
+    <t>27/03/2023  19:57:33</t>
+  </si>
+  <si>
+    <t>28/03/2023  10:09:05</t>
+  </si>
+  <si>
+    <t>28/03/2023  13:41:27</t>
+  </si>
+  <si>
+    <t>28/03/2023  12:56:37</t>
+  </si>
+  <si>
+    <t>28/03/2023  14:38:13</t>
+  </si>
+  <si>
+    <t>29/03/2023  09:47:08</t>
+  </si>
+  <si>
+    <t>29/03/2023  12:30:46</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:12:34</t>
+  </si>
+  <si>
+    <t>29/03/2023  13:31:59</t>
+  </si>
+  <si>
+    <t>29/03/2023  15:02:49</t>
+  </si>
+  <si>
+    <t>29/03/2023  16:41:58</t>
+  </si>
+  <si>
+    <t>29/03/2023  17:44:07</t>
+  </si>
+  <si>
+    <t>30/03/2023  10:18:35</t>
+  </si>
+  <si>
+    <t>30/03/2023  18:10:52</t>
+  </si>
+  <si>
+    <t>ARTHUR SANTOS SOUZA</t>
+  </si>
+  <si>
+    <t>GAEL SOARES ALMEIDA</t>
+  </si>
+  <si>
+    <t>MARIA EMILIA FONSECA RODRIGUES</t>
+  </si>
+  <si>
+    <t>DALILA DE OLIVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>VIVIANE KARINE SANTOS</t>
+  </si>
+  <si>
+    <t>TATIANA RODRIGUES ARAUJO</t>
+  </si>
+  <si>
+    <t>JULIANO CAMPOS PEREIRA BESSA</t>
+  </si>
+  <si>
+    <t>ADRIANA FERREIRA ANDRE</t>
+  </si>
+  <si>
+    <t>MARIA HELENA ALMEIDA GUEDES</t>
+  </si>
+  <si>
+    <t>SIMONE APARECIDA ALVES EVANGELISTA</t>
+  </si>
+  <si>
+    <t>ADJA MARIA DA SILVA OTONI</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE DA SILVA</t>
+  </si>
+  <si>
+    <t>LENISA MARIA ALVES TRASSARD</t>
+  </si>
+  <si>
+    <t>JOSE BENICIO BASTOS BARBOSA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>RFABIANA DE MELO BARROS</t>
+  </si>
+  <si>
+    <t>GUSTAVO QUIRINO SALES</t>
+  </si>
+  <si>
+    <t>EMILIA VIRGINIA DA SILVA SOARES</t>
+  </si>
+  <si>
+    <t>JANAINA RODRIGUES DA SILVA</t>
+  </si>
+  <si>
+    <t>MIDORI SUGAHARA</t>
+  </si>
+  <si>
+    <t>JULIA CASSIA FERREIRA FROIS</t>
+  </si>
+  <si>
+    <t>MAURICIO DINIZ JUNIOR</t>
+  </si>
+  <si>
+    <t>GISLENE MARTINS DE CASTRO</t>
+  </si>
+  <si>
+    <t>LUCIENE ALVES DE ALMEIDA DA SILVA</t>
+  </si>
+  <si>
+    <t>MIGUEL LUCAS HONORATO OLIVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>VERA LUCIA PIMENTA PEREIRA</t>
+  </si>
+  <si>
+    <t>CELIA CRISTINA DA SILVA</t>
+  </si>
+  <si>
+    <t>GUILHERME ARAUJO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>PAMELA RAMOS RESENDE AMORIM</t>
+  </si>
+  <si>
+    <t>BERNADETE EDELQUIM FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>DANUBIA FERNANDES BARRETO CRUZ</t>
+  </si>
+  <si>
+    <t>ENZO ALVARENGA DE MELO RODRIGUES CARDOZO</t>
+  </si>
+  <si>
+    <t>RENATA BATISTA DA CONCEIÇÃO COSTA</t>
+  </si>
+  <si>
+    <t>RODRIGO ANTONIO SANTOS CARDOSO</t>
+  </si>
+  <si>
+    <t>LARISSA BASANTE DE ALBUQUERQUE CARDOSO</t>
+  </si>
+  <si>
+    <t>DAVI ANTONIO DE ALBUQUERQUE CARDOSO</t>
+  </si>
+  <si>
+    <t>LARISSA GAVA</t>
   </si>
   <si>
     <t>SOLANGE CRISTINA DOS SANTOS LEMOS</t>
@@ -184,94 +817,481 @@
     <t>JOAO LUCAS GONÇALVES GRIPA</t>
   </si>
   <si>
-    <t>GAEL SOARES ALMEIDA</t>
-  </si>
-  <si>
-    <t>RAQUEL ANGELICA CAMPOS MOREIRA MENDES</t>
+    <t>LIETE TAVARES FONSECA</t>
+  </si>
+  <si>
+    <t>CHRISTIANE DE FARIAS SANTOS NUNES</t>
+  </si>
+  <si>
+    <t>JULIO CESAR JANDER DE CARVALHO</t>
+  </si>
+  <si>
+    <t>CRISTIANO ALVES GROBÉRIO</t>
+  </si>
+  <si>
+    <t>CRISTIANE BEZERRA DA SILVA LUNA</t>
+  </si>
+  <si>
+    <t>ADRIANE SOUZA BATISTA</t>
+  </si>
+  <si>
+    <t>MARIA DA CONCEICAO RODRIGUES LEITE</t>
+  </si>
+  <si>
+    <t>GILBERTO PINTO DE BARROS SOBRINHO</t>
+  </si>
+  <si>
+    <t>GIULIANE MARIA DE FARIAS NOBRE</t>
+  </si>
+  <si>
+    <t>BRUNO FREIRE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ADELE SOARES SILVA</t>
+  </si>
+  <si>
+    <t>ALEXANDRO ALVES BORGES</t>
+  </si>
+  <si>
+    <t>KEITI ALVES MASSUDA SANCHES</t>
+  </si>
+  <si>
+    <t>MATHEUS SOARES</t>
+  </si>
+  <si>
+    <t>ANDREIA OLIVEIRA DA SILVA NERIS</t>
+  </si>
+  <si>
+    <t>ANA PAULA CUNHA VIANA ARAUJO</t>
+  </si>
+  <si>
+    <t>MARCIA MARIA DA SILVA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>ALISSON DUMONT BESSA</t>
+  </si>
+  <si>
+    <t>RICARDO LUIZ BERNARDO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>SELMA DE FREITAS COSTA</t>
+  </si>
+  <si>
+    <t>BENEDICTO BARBOSA NETTO</t>
+  </si>
+  <si>
+    <t>STELLA MARYS DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>DENISE FERREIRA CESAREO</t>
+  </si>
+  <si>
+    <t>JOAQUIM EMANOEL RIBEIRO MIRANDA</t>
+  </si>
+  <si>
+    <t>THAINARA MARIA DE LIMA GUEDES ARAUJO</t>
+  </si>
+  <si>
+    <t>CRISTIANO SOARD DE DEUS</t>
+  </si>
+  <si>
+    <t>JULIANA LIMA COUTINHO</t>
+  </si>
+  <si>
+    <t>SARA CUTINHO BRAGANÇA DA COSTA</t>
+  </si>
+  <si>
+    <t>MAITE OLIVEIRA BOA MORTE TIMOTEO</t>
+  </si>
+  <si>
+    <t>ADRIANE CÂMARA PENIDO CHAGAS</t>
+  </si>
+  <si>
+    <t>ROXANA JEANE SALGUES CALHEIROS</t>
+  </si>
+  <si>
+    <t>SANDRA MARIA DE SOUZA</t>
+  </si>
+  <si>
+    <t>ANTONELLA GONÇALVES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DAYANE FERNANDES DO CARMO PEREIRA</t>
+  </si>
+  <si>
+    <t>ALINE CRISTINA ROCHA VIANA</t>
+  </si>
+  <si>
+    <t>JAIRO FERREIRA DE MORAIS</t>
+  </si>
+  <si>
+    <t>LETICIA RODRIGUES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ANDRÉ DIAS DA SILVA</t>
+  </si>
+  <si>
+    <t>GENILDA TERTO JUSTINO DA SILVA</t>
+  </si>
+  <si>
+    <t>MARIA DE FATIMA VILA NOVA PIMENTEL</t>
+  </si>
+  <si>
+    <t>MARIA HELENA DIAS DINIZ</t>
+  </si>
+  <si>
+    <t>SUELENE ALVES DA SILVA</t>
+  </si>
+  <si>
+    <t>VANUSA LUIZ DE JESUS</t>
+  </si>
+  <si>
+    <t>NATALIA MARIA DE LIRA</t>
+  </si>
+  <si>
+    <t>IARA MARIA SILVA</t>
+  </si>
+  <si>
+    <t>HENRIQUE CALDEIRA RODRIGUES</t>
+  </si>
+  <si>
+    <t>DAVI LUCCA DE SOUZA FALCAO</t>
+  </si>
+  <si>
+    <t>RACHEL SILVA ROCHA NOGUEIRA</t>
+  </si>
+  <si>
+    <t>GIOVANA CARLA ALMEIDA CAMPOS</t>
+  </si>
+  <si>
+    <t>MARCIA MARIA DE SOUSA</t>
+  </si>
+  <si>
+    <t>LUANA KAROLINE OLIVEIRA LIMA</t>
+  </si>
+  <si>
+    <t>ANDREY CAMILO BARROS</t>
+  </si>
+  <si>
+    <t>VILMAR XAVIER DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ROBERT RICHARD DE FREITAS LANNES</t>
+  </si>
+  <si>
+    <t>IRAÇUY LUZIA SOUZA</t>
+  </si>
+  <si>
+    <t>LAISLA DOS SANTOS RIBEIRO</t>
+  </si>
+  <si>
+    <t>GABRIELLE DA COSTA VIANA CHIABAI PATERLINI</t>
+  </si>
+  <si>
+    <t>JOSE JULIO DA SILVA</t>
+  </si>
+  <si>
+    <t>ELIEL DA SILVEIRA</t>
+  </si>
+  <si>
+    <t>NAYARA LORRAYNE DA SILVA</t>
+  </si>
+  <si>
+    <t>SOFIA SOUZA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>AMANDA VICENTE DA SILVA</t>
+  </si>
+  <si>
+    <t>DIEGO SANTOS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>ROBISON SEBASTIAO DE ASSUNCAO</t>
+  </si>
+  <si>
+    <t>LUIZ HENRIQUE DA SILVA RIBEIRO</t>
+  </si>
+  <si>
+    <t>RAYANE MARCELO MOREIRA SANTOS</t>
+  </si>
+  <si>
+    <t>MANUELA BELEM PAES</t>
+  </si>
+  <si>
+    <t>ADRIANA APARECIDA ROSA LOMBA</t>
+  </si>
+  <si>
+    <t>REJANE DE CASSIA ANTUNES</t>
+  </si>
+  <si>
+    <t>BARTOLOMEU DE BRITO MELO</t>
+  </si>
+  <si>
+    <t>MARCIA VASCONCELOS DA SILVA</t>
+  </si>
+  <si>
+    <t>IDILIS SUSANA RODRIGUES DA SILVA</t>
+  </si>
+  <si>
+    <t>MURILO LYRIO AZEVEDO</t>
+  </si>
+  <si>
+    <t>LÉO ALVES ROSA</t>
+  </si>
+  <si>
+    <t>ALADLESSIA MARIA CAVALCANTI ROGERIO</t>
+  </si>
+  <si>
+    <t>SALOMÉ MARIA DE ARAUJO SILVA</t>
+  </si>
+  <si>
+    <t>ELIZANGELA LIMA DE ABREU</t>
+  </si>
+  <si>
+    <t>PRISCILA MARIA BRANDAO DA SILVA BARBOSA</t>
+  </si>
+  <si>
+    <t>MARIA EDUARDA FARIAS CORDEIRO</t>
+  </si>
+  <si>
+    <t>LAVINIA ARRUDA BERNARDO DA SILVA</t>
+  </si>
+  <si>
+    <t>NATHALY NUNES DOS SANTOS BARACHO</t>
+  </si>
+  <si>
+    <t>MARIA DAS GRACAS MELO</t>
+  </si>
+  <si>
+    <t>MARCELA MARINHO DE ANDRADE</t>
+  </si>
+  <si>
+    <t>WELLINGTON GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>GEISA TOLEDO LOPES</t>
+  </si>
+  <si>
+    <t>THAMIRES BOSGES MENDES</t>
+  </si>
+  <si>
+    <t>ROSSANA LOPES DE ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>YORRANNE DE SALES CARVALHO</t>
+  </si>
+  <si>
+    <t>CLAUDIA DE CARVALHO VILACA</t>
+  </si>
+  <si>
+    <t>THIAGO DE JESUS MOREIRA MIRANDA</t>
+  </si>
+  <si>
+    <t>THIAGO FERREIRA MELO</t>
+  </si>
+  <si>
+    <t>FABIANA DE MOURA NASCIMENTO BAHIA</t>
+  </si>
+  <si>
+    <t>LAURA GONÇALVES ALMEIDA</t>
+  </si>
+  <si>
+    <t>ENI BARBOSA DA SILVA COSTA</t>
+  </si>
+  <si>
+    <t>LUCIANA FIGUEIREDO MEIRA</t>
+  </si>
+  <si>
+    <t>GILBERTO JOSE DE SOUSA</t>
+  </si>
+  <si>
+    <t>VALDEMIR MARTINS VIEIRA</t>
+  </si>
+  <si>
+    <t>FLAVIA CRISTINA ALVES FINARDI</t>
+  </si>
+  <si>
+    <t>SUZE DE OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t>LUIZA MARIA VIEIRA</t>
+  </si>
+  <si>
+    <t>NIVIA FERREIRA DE LIMA SOUTO</t>
+  </si>
+  <si>
+    <t>TAINARA BESSA DE CARVALHO BARCELOS</t>
+  </si>
+  <si>
+    <t>RAQUEL RIBEIRO RODRIGUES</t>
+  </si>
+  <si>
+    <t>MARIA AUXILIADORA ABRAHAO DE CASTRO</t>
+  </si>
+  <si>
+    <t>WELINGTON GERALDO CRUZ</t>
+  </si>
+  <si>
+    <t>CLAUDIA RODRIGUES STORINO DE MORAES</t>
+  </si>
+  <si>
+    <t>BRIAN WILLIAN SANTOS RODRIGUES</t>
+  </si>
+  <si>
+    <t>MARCOS DE JESUS VENTURA</t>
+  </si>
+  <si>
+    <t>DIOGENES ALBINO DE PAULA TAVARES</t>
+  </si>
+  <si>
+    <t>BETHANIA DE PAULA BARBOSA</t>
+  </si>
+  <si>
+    <t>VINÍCIUS DE ALMEIDA POUBEL FERRI</t>
+  </si>
+  <si>
+    <t>LUCIENE MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>DEBORA CANDIDO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CLAYDSON ALVES LIMA</t>
+  </si>
+  <si>
+    <t>CRISTIANO DIAS GUIMARAES</t>
+  </si>
+  <si>
+    <t>ADRIELE ANDRADE DE BRITO GAMA</t>
+  </si>
+  <si>
+    <t>UBIRATAN DE BARROS MELO</t>
+  </si>
+  <si>
+    <t>JOAQUIM BERCELOS LIMA ANDRADE</t>
+  </si>
+  <si>
+    <t>TARCIANA ALBUQUERQUE DA SILVA</t>
+  </si>
+  <si>
+    <t>MARCIO SOARES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>BRUNO RUAN DE SOUZA</t>
+  </si>
+  <si>
+    <t>ANDERSON WEYNER DE SOUZA LIMA</t>
+  </si>
+  <si>
+    <t>LUCAS COELHO FERREIRA RIOS</t>
+  </si>
+  <si>
+    <t>JOÃ£O VICTOR DA SILVA SANTOS DE ANDRADE</t>
+  </si>
+  <si>
+    <t>PATRICIA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>FERNANDO FERREIRA BARCELLOS</t>
+  </si>
+  <si>
+    <t>AGUINALDO SOUSA DA SILVA</t>
+  </si>
+  <si>
+    <t>NATALY SCHUWAMBACK</t>
+  </si>
+  <si>
+    <t>GUILHERME FERRACINI</t>
+  </si>
+  <si>
+    <t>VIVANE DA SILVA LIMA</t>
+  </si>
+  <si>
+    <t>MARIA LUISA NOVAES CAHU</t>
+  </si>
+  <si>
+    <t>CHARLENE MARIA DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>SIMONE MAIA DE ARAUJO</t>
+  </si>
+  <si>
+    <t>JEREMIAS GUILHERME DA SILVA</t>
+  </si>
+  <si>
+    <t>FABIO CESAR DE LIMA SALES</t>
+  </si>
+  <si>
+    <t>MARCONDES ANTONIO MATIAS GUEDES</t>
+  </si>
+  <si>
+    <t>KARLA FERNANDA GADELHA CALIXTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>MOEMA DAYANNE TORRES SIQUEIRA XAVIER</t>
+  </si>
+  <si>
+    <t>ROGERIA DORALICE SOARES DA SILVA</t>
+  </si>
+  <si>
+    <t>RUAN LUCAS NUNES DE SOUZA</t>
+  </si>
+  <si>
+    <t>ANA CRISTINA BORGES DA SILVA</t>
+  </si>
+  <si>
+    <t>WILZA CARLA BARBOSA</t>
+  </si>
+  <si>
+    <t>DEISE ROCHA DA SILVA</t>
+  </si>
+  <si>
+    <t>ISABELLE VIEIRA PIO</t>
+  </si>
+  <si>
+    <t>ANDREA DA SILVA AMORIM</t>
+  </si>
+  <si>
+    <t>EDMILSON RODRIGUES DE SOUZA</t>
   </si>
   <si>
     <t>YASMIN SANTOS PALHARES HORTA</t>
   </si>
   <si>
-    <t>MAURICIO EVANGELISTA GONZAGA</t>
-  </si>
-  <si>
-    <t>ANA PAULA CARDOSO DE ASSIS MONTEIRO</t>
-  </si>
-  <si>
-    <t>VINNICIUS MONTEIRO GONZAGA</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE ALVES DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DILEIANE MARTINS DE SOUZA</t>
-  </si>
-  <si>
-    <t>NEUZA AUGUASTA SOARES</t>
-  </si>
-  <si>
-    <t>LILIANE CALDEIRA DE SOUZA</t>
-  </si>
-  <si>
-    <t>PATRICIA PIERONI PAIN</t>
-  </si>
-  <si>
-    <t>RAPHAEL DOS REIS CARVALHO</t>
-  </si>
-  <si>
-    <t>LEILA PINHEIRO DE AVILA</t>
-  </si>
-  <si>
-    <t>MARISTELLA DE SOUZA PAIVA</t>
-  </si>
-  <si>
-    <t>JOSE RAIMUNDO RIBEIRO BRANDAO</t>
-  </si>
-  <si>
-    <t>MATHEUS RODRIGUES CHAVES SAMPAIO</t>
-  </si>
-  <si>
-    <t>MARIA LUIZA DE MOURA BRAGA SANTOS</t>
-  </si>
-  <si>
-    <t>CARINA KELY VIEIRA SOARES</t>
-  </si>
-  <si>
-    <t>MIDORI SUGAHARA</t>
-  </si>
-  <si>
-    <t>JULIA CASSIA FERREIRA FROIS</t>
-  </si>
-  <si>
-    <t>MAURICIO DINIZ JUNIOR</t>
-  </si>
-  <si>
-    <t>GISLENE MARTINS DE CASTRO</t>
-  </si>
-  <si>
-    <t>LUCIENE ALVES DE ALMEIDA DA SILVA</t>
-  </si>
-  <si>
-    <t>MIGUEL LUCAS HONORATO OLIVEIRA SILVA</t>
-  </si>
-  <si>
-    <t>VERA LUCIA PIMENTA PEREIRA</t>
-  </si>
-  <si>
-    <t>CELIA CRISTINA DA SILVA</t>
-  </si>
-  <si>
-    <t>ARTHUR SANTOS SOUZA</t>
-  </si>
-  <si>
-    <t>MARIA EMILIA FONSECA RODRIGUES</t>
-  </si>
-  <si>
-    <t>DALILA DE OLIVEIRA SILVA</t>
-  </si>
-  <si>
-    <t>VIVIANE KARINE SANTOS</t>
+    <t>ANA PAULA DE MELO ASSIS</t>
+  </si>
+  <si>
+    <t>GAEL AUGUSTO FERREIRA SANTOS</t>
+  </si>
+  <si>
+    <t>MARIANA FERREIRA BORGES</t>
+  </si>
+  <si>
+    <t>GILMAR DE JESUS</t>
+  </si>
+  <si>
+    <t>CLAUDETE APARECIDA SILVA</t>
+  </si>
+  <si>
+    <t>LARA EMANUELLY BARBOSA ALVES DE MELO</t>
+  </si>
+  <si>
+    <t>VALDIRA FOGACA FLORES</t>
+  </si>
+  <si>
+    <t>DURVALINA SOUZA PEREIRA</t>
+  </si>
+  <si>
+    <t>MARIA LENICE DA SILVA BOA VENTURA</t>
+  </si>
+  <si>
+    <t>PRISCILA TIZONI GOMES RIBEIRO SILVA</t>
+  </si>
+  <si>
+    <t>7 dias úteis</t>
+  </si>
+  <si>
+    <t>8 dias úteis</t>
   </si>
   <si>
     <t>9 dias úteis</t>
@@ -298,16 +1318,13 @@
     <t>6 dias úteis</t>
   </si>
   <si>
-    <t>7 dias úteis</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
+    <t>Assistencial</t>
+  </si>
+  <si>
     <t>No Assistencial</t>
-  </si>
-  <si>
-    <t>Assistencial</t>
   </si>
   <si>
     <t>Responder  Detalhes</t>
@@ -671,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,1332 +1734,7754 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>12086449</v>
+        <v>12089562</v>
       </c>
       <c r="F2">
-        <v>8507737</v>
+        <v>8511540</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>12087556</v>
+        <v>12090861</v>
       </c>
       <c r="F3">
-        <v>8509094</v>
+        <v>8513150</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>424</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>12088007</v>
+        <v>12092359</v>
       </c>
       <c r="F4">
-        <v>8311795</v>
+        <v>8514904</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>425</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>12089131</v>
+        <v>12093061</v>
       </c>
       <c r="F5">
-        <v>8511057</v>
+        <v>8515747</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>12090759</v>
+        <v>12093493</v>
       </c>
       <c r="F6">
-        <v>8513073</v>
+        <v>8516300</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>12090861</v>
+        <v>12093971</v>
       </c>
       <c r="F7">
-        <v>8513150</v>
+        <v>8516864</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>6032756</v>
+        <v>12094308</v>
       </c>
       <c r="F8">
-        <v>8493031</v>
+        <v>8517307</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>6033246</v>
+        <v>12095530</v>
       </c>
       <c r="F9">
-        <v>8493697</v>
+        <v>8518794</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>6033326</v>
+        <v>12096496</v>
       </c>
       <c r="F10">
-        <v>8493770</v>
+        <v>8519927</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>6033356</v>
+        <v>12096690</v>
       </c>
       <c r="F11">
-        <v>8493770</v>
+        <v>8520280</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>6033374</v>
+        <v>12097015</v>
       </c>
       <c r="F12">
-        <v>8493770</v>
+        <v>8520668</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>6033894</v>
+        <v>12097023</v>
       </c>
       <c r="F13">
-        <v>8494441</v>
+        <v>8520668</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>6033938</v>
+        <v>12097209</v>
       </c>
       <c r="F14">
-        <v>8494501</v>
+        <v>8520914</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>6035045</v>
+        <v>12097337</v>
       </c>
       <c r="F15">
-        <v>8495820</v>
+        <v>8521105</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>6035618</v>
+        <v>12096719</v>
       </c>
       <c r="F16">
-        <v>8496540</v>
+        <v>8520314</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E17">
-        <v>6036134</v>
+        <v>12096765</v>
       </c>
       <c r="F17">
-        <v>8497256</v>
+        <v>8520358</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>6036237</v>
+        <v>12098375</v>
       </c>
       <c r="F18">
-        <v>8497362</v>
+        <v>8522309</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L18" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>6036711</v>
+        <v>12098731</v>
       </c>
       <c r="F19">
-        <v>8497964</v>
+        <v>8522684</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E20">
-        <v>6037472</v>
+        <v>6040064</v>
       </c>
       <c r="F20">
-        <v>8498927</v>
+        <v>8502080</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>428</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>6038194</v>
+        <v>6040087</v>
       </c>
       <c r="F21">
-        <v>8499817</v>
+        <v>8502113</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>428</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E22">
-        <v>6038410</v>
+        <v>6040088</v>
       </c>
       <c r="F22">
-        <v>8500059</v>
+        <v>8502115</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>428</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <v>6038950</v>
+        <v>6041343</v>
       </c>
       <c r="F23">
-        <v>8500689</v>
+        <v>8503499</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>428</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L23" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E24">
-        <v>6038984</v>
+        <v>12083979</v>
       </c>
       <c r="F24">
-        <v>8500745</v>
+        <v>8504470</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>429</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L24" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E25">
-        <v>6040064</v>
+        <v>12084078</v>
       </c>
       <c r="F25">
-        <v>8502080</v>
+        <v>8504582</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>429</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L25" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>6040087</v>
+        <v>12085828</v>
       </c>
       <c r="F26">
-        <v>8502113</v>
+        <v>8506994</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>430</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L26" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E27">
-        <v>6040088</v>
+        <v>12085981</v>
       </c>
       <c r="F27">
-        <v>8502115</v>
+        <v>8507153</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>430</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L27" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E28">
-        <v>6041343</v>
+        <v>6040409</v>
       </c>
       <c r="F28">
-        <v>8503499</v>
+        <v>8502471</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>428</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L28" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>12083979</v>
+        <v>12084001</v>
       </c>
       <c r="F29">
-        <v>8504470</v>
+        <v>8504523</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L29" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>12084078</v>
+        <v>12084056</v>
       </c>
       <c r="F30">
-        <v>8504582</v>
+        <v>8504569</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J30" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K30" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>12085828</v>
+        <v>12084609</v>
       </c>
       <c r="F31">
-        <v>8506994</v>
+        <v>8505524</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>429</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K31" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L31" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>12085981</v>
+        <v>12085412</v>
       </c>
       <c r="F32">
-        <v>8507153</v>
+        <v>8506496</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>430</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K32" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L32" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>12089562</v>
+        <v>12085489</v>
       </c>
       <c r="F33">
-        <v>8511540</v>
+        <v>8506572</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K33" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E34">
-        <v>12092359</v>
+        <v>12085751</v>
       </c>
       <c r="F34">
-        <v>8514904</v>
+        <v>8506870</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>430</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="K34" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E35">
-        <v>12093061</v>
+        <v>12085773</v>
       </c>
       <c r="F35">
-        <v>8515747</v>
+        <v>8506870</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="H35" t="s">
-        <v>87</v>
+        <v>430</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K35" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="L35" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36">
+        <v>12085787</v>
+      </c>
+      <c r="F36">
+        <v>8506870</v>
+      </c>
+      <c r="G36" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" t="s">
+        <v>430</v>
+      </c>
+      <c r="I36" t="s">
+        <v>434</v>
+      </c>
+      <c r="J36" t="s">
+        <v>435</v>
+      </c>
+      <c r="K36" t="s">
+        <v>437</v>
+      </c>
+      <c r="L36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37">
+        <v>12085788</v>
+      </c>
+      <c r="F37">
+        <v>8506870</v>
+      </c>
+      <c r="G37" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" t="s">
+        <v>430</v>
+      </c>
+      <c r="I37" t="s">
+        <v>434</v>
+      </c>
+      <c r="J37" t="s">
+        <v>435</v>
+      </c>
+      <c r="K37" t="s">
+        <v>437</v>
+      </c>
+      <c r="L37" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>12086089</v>
+      </c>
+      <c r="F38">
+        <v>8507332</v>
+      </c>
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" t="s">
+        <v>430</v>
+      </c>
+      <c r="I38" t="s">
+        <v>434</v>
+      </c>
+      <c r="J38" t="s">
+        <v>435</v>
+      </c>
+      <c r="K38" t="s">
+        <v>437</v>
+      </c>
+      <c r="L38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39">
+        <v>12086449</v>
+      </c>
+      <c r="F39">
+        <v>8507737</v>
+      </c>
+      <c r="G39" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" t="s">
+        <v>430</v>
+      </c>
+      <c r="I39" t="s">
+        <v>434</v>
+      </c>
+      <c r="J39" t="s">
+        <v>436</v>
+      </c>
+      <c r="K39" t="s">
+        <v>437</v>
+      </c>
+      <c r="L39" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>12087556</v>
+      </c>
+      <c r="F40">
+        <v>8509094</v>
+      </c>
+      <c r="G40" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" t="s">
+        <v>431</v>
+      </c>
+      <c r="I40" t="s">
+        <v>434</v>
+      </c>
+      <c r="J40" t="s">
+        <v>435</v>
+      </c>
+      <c r="K40" t="s">
+        <v>437</v>
+      </c>
+      <c r="L40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>12088007</v>
+      </c>
+      <c r="F41">
+        <v>8311795</v>
+      </c>
+      <c r="G41" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" t="s">
+        <v>431</v>
+      </c>
+      <c r="I41" t="s">
+        <v>434</v>
+      </c>
+      <c r="J41" t="s">
+        <v>435</v>
+      </c>
+      <c r="K41" t="s">
+        <v>437</v>
+      </c>
+      <c r="L41" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>12089131</v>
+      </c>
+      <c r="F42">
+        <v>8511057</v>
+      </c>
+      <c r="G42" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" t="s">
+        <v>431</v>
+      </c>
+      <c r="I42" t="s">
+        <v>434</v>
+      </c>
+      <c r="J42" t="s">
+        <v>435</v>
+      </c>
+      <c r="K42" t="s">
+        <v>437</v>
+      </c>
+      <c r="L42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43">
+        <v>12090759</v>
+      </c>
+      <c r="F43">
+        <v>8513073</v>
+      </c>
+      <c r="G43" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" t="s">
+        <v>432</v>
+      </c>
+      <c r="I43" t="s">
+        <v>434</v>
+      </c>
+      <c r="J43" t="s">
+        <v>435</v>
+      </c>
+      <c r="K43" t="s">
+        <v>437</v>
+      </c>
+      <c r="L43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>12091461</v>
+      </c>
+      <c r="F44">
+        <v>8513892</v>
+      </c>
+      <c r="G44" t="s">
+        <v>267</v>
+      </c>
+      <c r="H44" t="s">
+        <v>433</v>
+      </c>
+      <c r="I44" t="s">
+        <v>434</v>
+      </c>
+      <c r="J44" t="s">
+        <v>435</v>
+      </c>
+      <c r="K44" t="s">
+        <v>437</v>
+      </c>
+      <c r="L44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45">
+        <v>12092278</v>
+      </c>
+      <c r="F45">
+        <v>8514791</v>
+      </c>
+      <c r="G45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I45" t="s">
+        <v>434</v>
+      </c>
+      <c r="J45" t="s">
+        <v>435</v>
+      </c>
+      <c r="K45" t="s">
+        <v>437</v>
+      </c>
+      <c r="L45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46">
+        <v>12093449</v>
+      </c>
+      <c r="F46">
+        <v>8516242</v>
+      </c>
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" t="s">
+        <v>424</v>
+      </c>
+      <c r="I46" t="s">
+        <v>434</v>
+      </c>
+      <c r="J46" t="s">
+        <v>435</v>
+      </c>
+      <c r="K46" t="s">
+        <v>437</v>
+      </c>
+      <c r="L46" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47">
+        <v>12093933</v>
+      </c>
+      <c r="F47">
+        <v>8516840</v>
+      </c>
+      <c r="G47" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" t="s">
+        <v>424</v>
+      </c>
+      <c r="I47" t="s">
+        <v>434</v>
+      </c>
+      <c r="J47" t="s">
+        <v>436</v>
+      </c>
+      <c r="K47" t="s">
+        <v>437</v>
+      </c>
+      <c r="L47" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48">
+        <v>12094140</v>
+      </c>
+      <c r="F48">
+        <v>8517123</v>
+      </c>
+      <c r="G48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" t="s">
+        <v>424</v>
+      </c>
+      <c r="I48" t="s">
+        <v>434</v>
+      </c>
+      <c r="J48" t="s">
+        <v>435</v>
+      </c>
+      <c r="K48" t="s">
+        <v>437</v>
+      </c>
+      <c r="L48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49">
+        <v>12094363</v>
+      </c>
+      <c r="F49">
+        <v>8517344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" t="s">
+        <v>424</v>
+      </c>
+      <c r="I49" t="s">
+        <v>434</v>
+      </c>
+      <c r="J49" t="s">
+        <v>435</v>
+      </c>
+      <c r="K49" t="s">
+        <v>437</v>
+      </c>
+      <c r="L49" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>12094603</v>
+      </c>
+      <c r="F50">
+        <v>8517656</v>
+      </c>
+      <c r="G50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" t="s">
+        <v>424</v>
+      </c>
+      <c r="I50" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" t="s">
+        <v>436</v>
+      </c>
+      <c r="K50" t="s">
+        <v>437</v>
+      </c>
+      <c r="L50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51">
+        <v>12095058</v>
+      </c>
+      <c r="F51">
+        <v>8518192</v>
+      </c>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
+      <c r="H51" t="s">
+        <v>425</v>
+      </c>
+      <c r="I51" t="s">
+        <v>434</v>
+      </c>
+      <c r="J51" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>12095443</v>
+      </c>
+      <c r="F52">
+        <v>8518688</v>
+      </c>
+      <c r="G52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" t="s">
+        <v>425</v>
+      </c>
+      <c r="I52" t="s">
+        <v>434</v>
+      </c>
+      <c r="J52" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" t="s">
+        <v>437</v>
+      </c>
+      <c r="L52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53">
+        <v>12098618</v>
+      </c>
+      <c r="F53">
+        <v>8522583</v>
+      </c>
+      <c r="G53" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" t="s">
+        <v>427</v>
+      </c>
+      <c r="I53" t="s">
+        <v>434</v>
+      </c>
+      <c r="J53" t="s">
+        <v>435</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54">
+        <v>12100507</v>
+      </c>
+      <c r="F54">
+        <v>8524932</v>
+      </c>
+      <c r="G54" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" t="s">
+        <v>427</v>
+      </c>
+      <c r="I54" t="s">
+        <v>434</v>
+      </c>
+      <c r="J54" t="s">
+        <v>435</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55">
+        <v>12100574</v>
+      </c>
+      <c r="F55">
+        <v>8525017</v>
+      </c>
+      <c r="G55" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55" t="s">
+        <v>427</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s">
+        <v>437</v>
+      </c>
+      <c r="L55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>12100608</v>
+      </c>
+      <c r="F56">
+        <v>8525088</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" t="s">
+        <v>427</v>
+      </c>
+      <c r="I56" t="s">
+        <v>434</v>
+      </c>
+      <c r="J56" t="s">
+        <v>435</v>
+      </c>
+      <c r="K56" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57">
+        <v>12100990</v>
+      </c>
+      <c r="F57">
+        <v>8525516</v>
+      </c>
+      <c r="G57" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" t="s">
+        <v>427</v>
+      </c>
+      <c r="I57" t="s">
+        <v>434</v>
+      </c>
+      <c r="J57" t="s">
+        <v>435</v>
+      </c>
+      <c r="K57" t="s">
+        <v>437</v>
+      </c>
+      <c r="L57" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58">
+        <v>12101245</v>
+      </c>
+      <c r="F58">
+        <v>8525822</v>
+      </c>
+      <c r="G58" t="s">
+        <v>280</v>
+      </c>
+      <c r="H58" t="s">
+        <v>427</v>
+      </c>
+      <c r="I58" t="s">
+        <v>434</v>
+      </c>
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" t="s">
+        <v>437</v>
+      </c>
+      <c r="L58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59">
+        <v>12101668</v>
+      </c>
+      <c r="F59">
+        <v>8526271</v>
+      </c>
+      <c r="G59" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" t="s">
+        <v>427</v>
+      </c>
+      <c r="I59" t="s">
+        <v>434</v>
+      </c>
+      <c r="J59" t="s">
+        <v>435</v>
+      </c>
+      <c r="K59" t="s">
+        <v>437</v>
+      </c>
+      <c r="L59" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60">
+        <v>12101971</v>
+      </c>
+      <c r="F60">
+        <v>8526638</v>
+      </c>
+      <c r="G60" t="s">
+        <v>282</v>
+      </c>
+      <c r="H60" t="s">
+        <v>427</v>
+      </c>
+      <c r="I60" t="s">
+        <v>434</v>
+      </c>
+      <c r="J60" t="s">
+        <v>435</v>
+      </c>
+      <c r="K60" t="s">
+        <v>437</v>
+      </c>
+      <c r="L60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61">
+        <v>12102054</v>
+      </c>
+      <c r="F61">
+        <v>8526729</v>
+      </c>
+      <c r="G61" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" t="s">
+        <v>427</v>
+      </c>
+      <c r="I61" t="s">
+        <v>434</v>
+      </c>
+      <c r="J61" t="s">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s">
+        <v>437</v>
+      </c>
+      <c r="L61" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62">
+        <v>12102643</v>
+      </c>
+      <c r="F62">
+        <v>8527426</v>
+      </c>
+      <c r="G62" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" t="s">
+        <v>427</v>
+      </c>
+      <c r="I62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J62" t="s">
+        <v>435</v>
+      </c>
+      <c r="K62" t="s">
+        <v>437</v>
+      </c>
+      <c r="L62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63">
+        <v>12100663</v>
+      </c>
+      <c r="F63">
+        <v>8525156</v>
+      </c>
+      <c r="G63" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" t="s">
+        <v>427</v>
+      </c>
+      <c r="I63" t="s">
+        <v>434</v>
+      </c>
+      <c r="J63" t="s">
+        <v>435</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64">
+        <v>12102218</v>
+      </c>
+      <c r="F64">
+        <v>8526917</v>
+      </c>
+      <c r="G64" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" t="s">
+        <v>427</v>
+      </c>
+      <c r="I64" t="s">
+        <v>434</v>
+      </c>
+      <c r="J64" t="s">
+        <v>435</v>
+      </c>
+      <c r="K64" t="s">
+        <v>437</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65">
+        <v>12102464</v>
+      </c>
+      <c r="F65">
+        <v>8527284</v>
+      </c>
+      <c r="G65" t="s">
+        <v>287</v>
+      </c>
+      <c r="H65" t="s">
+        <v>427</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66">
+        <v>12102635</v>
+      </c>
+      <c r="F66">
+        <v>8527400</v>
+      </c>
+      <c r="G66" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" t="s">
+        <v>427</v>
+      </c>
+      <c r="I66" t="s">
+        <v>434</v>
+      </c>
+      <c r="J66" t="s">
+        <v>435</v>
+      </c>
+      <c r="K66" t="s">
+        <v>437</v>
+      </c>
+      <c r="L66" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67">
+        <v>12104236</v>
+      </c>
+      <c r="F67">
+        <v>8529349</v>
+      </c>
+      <c r="G67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" t="s">
+        <v>433</v>
+      </c>
+      <c r="I67" t="s">
+        <v>434</v>
+      </c>
+      <c r="J67" t="s">
+        <v>435</v>
+      </c>
+      <c r="K67" t="s">
+        <v>437</v>
+      </c>
+      <c r="L67" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68">
+        <v>12104342</v>
+      </c>
+      <c r="F68">
+        <v>8529452</v>
+      </c>
+      <c r="G68" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" t="s">
+        <v>433</v>
+      </c>
+      <c r="I68" t="s">
+        <v>434</v>
+      </c>
+      <c r="J68" t="s">
+        <v>435</v>
+      </c>
+      <c r="K68" t="s">
+        <v>437</v>
+      </c>
+      <c r="L68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
         <v>13</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69">
+        <v>12105398</v>
+      </c>
+      <c r="F69">
+        <v>8530759</v>
+      </c>
+      <c r="G69" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" t="s">
+        <v>433</v>
+      </c>
+      <c r="I69" t="s">
+        <v>434</v>
+      </c>
+      <c r="J69" t="s">
+        <v>436</v>
+      </c>
+      <c r="K69" t="s">
+        <v>437</v>
+      </c>
+      <c r="L69" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70">
+        <v>12106271</v>
+      </c>
+      <c r="F70">
+        <v>8531839</v>
+      </c>
+      <c r="G70" t="s">
+        <v>292</v>
+      </c>
+      <c r="H70" t="s">
+        <v>424</v>
+      </c>
+      <c r="I70" t="s">
+        <v>434</v>
+      </c>
+      <c r="J70" t="s">
+        <v>436</v>
+      </c>
+      <c r="K70" t="s">
+        <v>437</v>
+      </c>
+      <c r="L70" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36">
-        <v>12093493</v>
-      </c>
-      <c r="F36">
-        <v>8516300</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71">
+        <v>12106765</v>
+      </c>
+      <c r="F71">
+        <v>8532394</v>
+      </c>
+      <c r="G71" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" t="s">
+        <v>424</v>
+      </c>
+      <c r="I71" t="s">
+        <v>434</v>
+      </c>
+      <c r="J71" t="s">
+        <v>435</v>
+      </c>
+      <c r="K71" t="s">
+        <v>437</v>
+      </c>
+      <c r="L71" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72">
+        <v>12106860</v>
+      </c>
+      <c r="F72">
+        <v>8532458</v>
+      </c>
+      <c r="G72" t="s">
+        <v>294</v>
+      </c>
+      <c r="H72" t="s">
+        <v>424</v>
+      </c>
+      <c r="I72" t="s">
+        <v>434</v>
+      </c>
+      <c r="J72" t="s">
+        <v>435</v>
+      </c>
+      <c r="K72" t="s">
+        <v>437</v>
+      </c>
+      <c r="L72" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73">
+        <v>12107933</v>
+      </c>
+      <c r="F73">
+        <v>8533737</v>
+      </c>
+      <c r="G73" t="s">
+        <v>295</v>
+      </c>
+      <c r="H73" t="s">
+        <v>425</v>
+      </c>
+      <c r="I73" t="s">
+        <v>434</v>
+      </c>
+      <c r="J73" t="s">
+        <v>436</v>
+      </c>
+      <c r="K73" t="s">
+        <v>437</v>
+      </c>
+      <c r="L73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74">
+        <v>12107964</v>
+      </c>
+      <c r="F74">
+        <v>8533801</v>
+      </c>
+      <c r="G74" t="s">
+        <v>296</v>
+      </c>
+      <c r="H74" t="s">
+        <v>425</v>
+      </c>
+      <c r="I74" t="s">
+        <v>434</v>
+      </c>
+      <c r="J74" t="s">
+        <v>435</v>
+      </c>
+      <c r="K74" t="s">
+        <v>437</v>
+      </c>
+      <c r="L74" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
         <v>95</v>
       </c>
-      <c r="J36" t="s">
+      <c r="E75">
+        <v>12108459</v>
+      </c>
+      <c r="F75">
+        <v>8534412</v>
+      </c>
+      <c r="G75" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" t="s">
+        <v>425</v>
+      </c>
+      <c r="I75" t="s">
+        <v>434</v>
+      </c>
+      <c r="J75" t="s">
+        <v>436</v>
+      </c>
+      <c r="K75" t="s">
+        <v>437</v>
+      </c>
+      <c r="L75" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76">
+        <v>12108809</v>
+      </c>
+      <c r="F76">
+        <v>8534808</v>
+      </c>
+      <c r="G76" t="s">
+        <v>298</v>
+      </c>
+      <c r="H76" t="s">
+        <v>425</v>
+      </c>
+      <c r="I76" t="s">
+        <v>434</v>
+      </c>
+      <c r="J76" t="s">
+        <v>435</v>
+      </c>
+      <c r="K76" t="s">
+        <v>437</v>
+      </c>
+      <c r="L76" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
         <v>97</v>
       </c>
-      <c r="K36" t="s">
+      <c r="E77">
+        <v>12109412</v>
+      </c>
+      <c r="F77">
+        <v>8535522</v>
+      </c>
+      <c r="G77" t="s">
+        <v>299</v>
+      </c>
+      <c r="H77" t="s">
+        <v>425</v>
+      </c>
+      <c r="I77" t="s">
+        <v>434</v>
+      </c>
+      <c r="J77" t="s">
+        <v>435</v>
+      </c>
+      <c r="K77" t="s">
+        <v>437</v>
+      </c>
+      <c r="L77" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
         <v>98</v>
       </c>
-      <c r="L36" t="s">
-        <v>95</v>
+      <c r="E78">
+        <v>12109643</v>
+      </c>
+      <c r="F78">
+        <v>8535777</v>
+      </c>
+      <c r="G78" t="s">
+        <v>300</v>
+      </c>
+      <c r="H78" t="s">
+        <v>426</v>
+      </c>
+      <c r="I78" t="s">
+        <v>434</v>
+      </c>
+      <c r="J78" t="s">
+        <v>435</v>
+      </c>
+      <c r="K78" t="s">
+        <v>437</v>
+      </c>
+      <c r="L78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79">
+        <v>12109689</v>
+      </c>
+      <c r="F79">
+        <v>8535861</v>
+      </c>
+      <c r="G79" t="s">
+        <v>301</v>
+      </c>
+      <c r="H79" t="s">
+        <v>426</v>
+      </c>
+      <c r="I79" t="s">
+        <v>434</v>
+      </c>
+      <c r="J79" t="s">
+        <v>435</v>
+      </c>
+      <c r="K79" t="s">
+        <v>437</v>
+      </c>
+      <c r="L79" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>12109696</v>
+      </c>
+      <c r="F80">
+        <v>8535857</v>
+      </c>
+      <c r="G80" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" t="s">
+        <v>426</v>
+      </c>
+      <c r="I80" t="s">
+        <v>434</v>
+      </c>
+      <c r="J80" t="s">
+        <v>436</v>
+      </c>
+      <c r="K80" t="s">
+        <v>437</v>
+      </c>
+      <c r="L80" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81">
+        <v>12110599</v>
+      </c>
+      <c r="F81">
+        <v>8536916</v>
+      </c>
+      <c r="G81" t="s">
+        <v>303</v>
+      </c>
+      <c r="H81" t="s">
+        <v>426</v>
+      </c>
+      <c r="I81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J81" t="s">
+        <v>435</v>
+      </c>
+      <c r="K81" t="s">
+        <v>437</v>
+      </c>
+      <c r="L81" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82">
+        <v>12111096</v>
+      </c>
+      <c r="F82">
+        <v>8537508</v>
+      </c>
+      <c r="G82" t="s">
+        <v>304</v>
+      </c>
+      <c r="H82" t="s">
+        <v>426</v>
+      </c>
+      <c r="I82" t="s">
+        <v>434</v>
+      </c>
+      <c r="J82" t="s">
+        <v>436</v>
+      </c>
+      <c r="K82" t="s">
+        <v>437</v>
+      </c>
+      <c r="L82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83">
+        <v>12111135</v>
+      </c>
+      <c r="F83">
+        <v>8537595</v>
+      </c>
+      <c r="G83" t="s">
+        <v>305</v>
+      </c>
+      <c r="H83" t="s">
+        <v>426</v>
+      </c>
+      <c r="I83" t="s">
+        <v>434</v>
+      </c>
+      <c r="J83" t="s">
+        <v>435</v>
+      </c>
+      <c r="K83" t="s">
+        <v>437</v>
+      </c>
+      <c r="L83" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84">
+        <v>12111136</v>
+      </c>
+      <c r="F84">
+        <v>8537569</v>
+      </c>
+      <c r="G84" t="s">
+        <v>306</v>
+      </c>
+      <c r="H84" t="s">
+        <v>426</v>
+      </c>
+      <c r="I84" t="s">
+        <v>434</v>
+      </c>
+      <c r="J84" t="s">
+        <v>435</v>
+      </c>
+      <c r="K84" t="s">
+        <v>437</v>
+      </c>
+      <c r="L84" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85">
+        <v>12111970</v>
+      </c>
+      <c r="F85">
+        <v>8538559</v>
+      </c>
+      <c r="G85" t="s">
+        <v>307</v>
+      </c>
+      <c r="H85" t="s">
+        <v>427</v>
+      </c>
+      <c r="I85" t="s">
+        <v>434</v>
+      </c>
+      <c r="J85" t="s">
+        <v>435</v>
+      </c>
+      <c r="K85" t="s">
+        <v>437</v>
+      </c>
+      <c r="L85" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86">
+        <v>12112594</v>
+      </c>
+      <c r="F86">
+        <v>8539348</v>
+      </c>
+      <c r="G86" t="s">
+        <v>308</v>
+      </c>
+      <c r="H86" t="s">
+        <v>427</v>
+      </c>
+      <c r="I86" t="s">
+        <v>434</v>
+      </c>
+      <c r="J86" t="s">
+        <v>435</v>
+      </c>
+      <c r="K86" t="s">
+        <v>437</v>
+      </c>
+      <c r="L86" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87">
+        <v>12112719</v>
+      </c>
+      <c r="F87">
+        <v>8539498</v>
+      </c>
+      <c r="G87" t="s">
+        <v>309</v>
+      </c>
+      <c r="H87" t="s">
+        <v>427</v>
+      </c>
+      <c r="I87" t="s">
+        <v>434</v>
+      </c>
+      <c r="J87" t="s">
+        <v>436</v>
+      </c>
+      <c r="K87" t="s">
+        <v>437</v>
+      </c>
+      <c r="L87" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88">
+        <v>12112926</v>
+      </c>
+      <c r="F88">
+        <v>8539730</v>
+      </c>
+      <c r="G88" t="s">
+        <v>310</v>
+      </c>
+      <c r="H88" t="s">
+        <v>427</v>
+      </c>
+      <c r="I88" t="s">
+        <v>434</v>
+      </c>
+      <c r="J88" t="s">
+        <v>435</v>
+      </c>
+      <c r="K88" t="s">
+        <v>437</v>
+      </c>
+      <c r="L88" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89">
+        <v>12103694</v>
+      </c>
+      <c r="F89">
+        <v>8528664</v>
+      </c>
+      <c r="G89" t="s">
+        <v>311</v>
+      </c>
+      <c r="H89" t="s">
+        <v>433</v>
+      </c>
+      <c r="I89" t="s">
+        <v>434</v>
+      </c>
+      <c r="J89" t="s">
+        <v>436</v>
+      </c>
+      <c r="K89" t="s">
+        <v>437</v>
+      </c>
+      <c r="L89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90">
+        <v>12104467</v>
+      </c>
+      <c r="F90">
+        <v>8529617</v>
+      </c>
+      <c r="G90" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" t="s">
+        <v>433</v>
+      </c>
+      <c r="I90" t="s">
+        <v>434</v>
+      </c>
+      <c r="J90" t="s">
+        <v>435</v>
+      </c>
+      <c r="K90" t="s">
+        <v>437</v>
+      </c>
+      <c r="L90" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91">
+        <v>12104624</v>
+      </c>
+      <c r="F91">
+        <v>8529808</v>
+      </c>
+      <c r="G91" t="s">
+        <v>313</v>
+      </c>
+      <c r="H91" t="s">
+        <v>433</v>
+      </c>
+      <c r="I91" t="s">
+        <v>434</v>
+      </c>
+      <c r="J91" t="s">
+        <v>435</v>
+      </c>
+      <c r="K91" t="s">
+        <v>437</v>
+      </c>
+      <c r="L91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92">
+        <v>12105288</v>
+      </c>
+      <c r="F92">
+        <v>8530611</v>
+      </c>
+      <c r="G92" t="s">
+        <v>314</v>
+      </c>
+      <c r="H92" t="s">
+        <v>433</v>
+      </c>
+      <c r="I92" t="s">
+        <v>434</v>
+      </c>
+      <c r="J92" t="s">
+        <v>435</v>
+      </c>
+      <c r="K92" t="s">
+        <v>437</v>
+      </c>
+      <c r="L92" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93">
+        <v>12107119</v>
+      </c>
+      <c r="F93">
+        <v>8532804</v>
+      </c>
+      <c r="G93" t="s">
+        <v>315</v>
+      </c>
+      <c r="H93" t="s">
+        <v>424</v>
+      </c>
+      <c r="I93" t="s">
+        <v>434</v>
+      </c>
+      <c r="J93" t="s">
+        <v>435</v>
+      </c>
+      <c r="K93" t="s">
+        <v>437</v>
+      </c>
+      <c r="L93" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94">
+        <v>12108424</v>
+      </c>
+      <c r="F94">
+        <v>8534335</v>
+      </c>
+      <c r="G94" t="s">
+        <v>316</v>
+      </c>
+      <c r="H94" t="s">
+        <v>425</v>
+      </c>
+      <c r="I94" t="s">
+        <v>434</v>
+      </c>
+      <c r="J94" t="s">
+        <v>436</v>
+      </c>
+      <c r="K94" t="s">
+        <v>437</v>
+      </c>
+      <c r="L94" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95">
+        <v>12108778</v>
+      </c>
+      <c r="F95">
+        <v>8534721</v>
+      </c>
+      <c r="G95" t="s">
+        <v>317</v>
+      </c>
+      <c r="H95" t="s">
+        <v>425</v>
+      </c>
+      <c r="I95" t="s">
+        <v>434</v>
+      </c>
+      <c r="J95" t="s">
+        <v>435</v>
+      </c>
+      <c r="K95" t="s">
+        <v>437</v>
+      </c>
+      <c r="L95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96">
+        <v>12108785</v>
+      </c>
+      <c r="F96">
+        <v>8534706</v>
+      </c>
+      <c r="G96" t="s">
+        <v>318</v>
+      </c>
+      <c r="H96" t="s">
+        <v>425</v>
+      </c>
+      <c r="I96" t="s">
+        <v>434</v>
+      </c>
+      <c r="J96" t="s">
+        <v>435</v>
+      </c>
+      <c r="K96" t="s">
+        <v>437</v>
+      </c>
+      <c r="L96" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97">
+        <v>12110193</v>
+      </c>
+      <c r="F97">
+        <v>8536412</v>
+      </c>
+      <c r="G97" t="s">
+        <v>319</v>
+      </c>
+      <c r="H97" t="s">
+        <v>426</v>
+      </c>
+      <c r="I97" t="s">
+        <v>434</v>
+      </c>
+      <c r="J97" t="s">
+        <v>435</v>
+      </c>
+      <c r="K97" t="s">
+        <v>437</v>
+      </c>
+      <c r="L97" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98">
+        <v>12110574</v>
+      </c>
+      <c r="F98">
+        <v>8536852</v>
+      </c>
+      <c r="G98" t="s">
+        <v>320</v>
+      </c>
+      <c r="H98" t="s">
+        <v>426</v>
+      </c>
+      <c r="I98" t="s">
+        <v>434</v>
+      </c>
+      <c r="J98" t="s">
+        <v>435</v>
+      </c>
+      <c r="K98" t="s">
+        <v>437</v>
+      </c>
+      <c r="L98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99">
+        <v>12110992</v>
+      </c>
+      <c r="F99">
+        <v>8537322</v>
+      </c>
+      <c r="G99" t="s">
+        <v>321</v>
+      </c>
+      <c r="H99" t="s">
+        <v>426</v>
+      </c>
+      <c r="I99" t="s">
+        <v>434</v>
+      </c>
+      <c r="J99" t="s">
+        <v>435</v>
+      </c>
+      <c r="K99" t="s">
+        <v>437</v>
+      </c>
+      <c r="L99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100">
+        <v>12111393</v>
+      </c>
+      <c r="F100">
+        <v>8537868</v>
+      </c>
+      <c r="G100" t="s">
+        <v>322</v>
+      </c>
+      <c r="H100" t="s">
+        <v>427</v>
+      </c>
+      <c r="I100" t="s">
+        <v>434</v>
+      </c>
+      <c r="J100" t="s">
+        <v>435</v>
+      </c>
+      <c r="K100" t="s">
+        <v>437</v>
+      </c>
+      <c r="L100" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101">
+        <v>12112182</v>
+      </c>
+      <c r="F101">
+        <v>8538847</v>
+      </c>
+      <c r="G101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H101" t="s">
+        <v>427</v>
+      </c>
+      <c r="I101" t="s">
+        <v>434</v>
+      </c>
+      <c r="J101" t="s">
+        <v>436</v>
+      </c>
+      <c r="K101" t="s">
+        <v>437</v>
+      </c>
+      <c r="L101" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>29</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102">
+        <v>12112314</v>
+      </c>
+      <c r="F102">
+        <v>8538963</v>
+      </c>
+      <c r="G102" t="s">
+        <v>324</v>
+      </c>
+      <c r="H102" t="s">
+        <v>427</v>
+      </c>
+      <c r="I102" t="s">
+        <v>434</v>
+      </c>
+      <c r="J102" t="s">
+        <v>436</v>
+      </c>
+      <c r="K102" t="s">
+        <v>437</v>
+      </c>
+      <c r="L102" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103">
+        <v>12112822</v>
+      </c>
+      <c r="F103">
+        <v>8539614</v>
+      </c>
+      <c r="G103" t="s">
+        <v>325</v>
+      </c>
+      <c r="H103" t="s">
+        <v>427</v>
+      </c>
+      <c r="I103" t="s">
+        <v>434</v>
+      </c>
+      <c r="J103" t="s">
+        <v>436</v>
+      </c>
+      <c r="K103" t="s">
+        <v>437</v>
+      </c>
+      <c r="L103" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104">
+        <v>12114298</v>
+      </c>
+      <c r="F104">
+        <v>8541330</v>
+      </c>
+      <c r="G104" t="s">
+        <v>326</v>
+      </c>
+      <c r="H104" t="s">
+        <v>433</v>
+      </c>
+      <c r="I104" t="s">
+        <v>434</v>
+      </c>
+      <c r="J104" t="s">
+        <v>436</v>
+      </c>
+      <c r="K104" t="s">
+        <v>437</v>
+      </c>
+      <c r="L104" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105">
+        <v>12114966</v>
+      </c>
+      <c r="F105">
+        <v>8542114</v>
+      </c>
+      <c r="G105" t="s">
+        <v>327</v>
+      </c>
+      <c r="H105" t="s">
+        <v>433</v>
+      </c>
+      <c r="I105" t="s">
+        <v>434</v>
+      </c>
+      <c r="J105" t="s">
+        <v>435</v>
+      </c>
+      <c r="K105" t="s">
+        <v>437</v>
+      </c>
+      <c r="L105" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106">
+        <v>12117464</v>
+      </c>
+      <c r="F106">
+        <v>8545117</v>
+      </c>
+      <c r="G106" t="s">
+        <v>328</v>
+      </c>
+      <c r="H106" t="s">
+        <v>424</v>
+      </c>
+      <c r="I106" t="s">
+        <v>434</v>
+      </c>
+      <c r="J106" t="s">
+        <v>435</v>
+      </c>
+      <c r="K106" t="s">
+        <v>437</v>
+      </c>
+      <c r="L106" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107">
+        <v>12118773</v>
+      </c>
+      <c r="F107">
+        <v>8546585</v>
+      </c>
+      <c r="G107" t="s">
+        <v>329</v>
+      </c>
+      <c r="H107" t="s">
+        <v>425</v>
+      </c>
+      <c r="I107" t="s">
+        <v>434</v>
+      </c>
+      <c r="J107" t="s">
+        <v>435</v>
+      </c>
+      <c r="K107" t="s">
+        <v>437</v>
+      </c>
+      <c r="L107" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108">
+        <v>12119067</v>
+      </c>
+      <c r="F108">
+        <v>8546925</v>
+      </c>
+      <c r="G108" t="s">
+        <v>330</v>
+      </c>
+      <c r="H108" t="s">
+        <v>425</v>
+      </c>
+      <c r="I108" t="s">
+        <v>434</v>
+      </c>
+      <c r="J108" t="s">
+        <v>435</v>
+      </c>
+      <c r="K108" t="s">
+        <v>437</v>
+      </c>
+      <c r="L108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109">
+        <v>12120451</v>
+      </c>
+      <c r="F109">
+        <v>8548505</v>
+      </c>
+      <c r="G109" t="s">
+        <v>331</v>
+      </c>
+      <c r="H109" t="s">
+        <v>426</v>
+      </c>
+      <c r="I109" t="s">
+        <v>434</v>
+      </c>
+      <c r="J109" t="s">
+        <v>436</v>
+      </c>
+      <c r="K109" t="s">
+        <v>437</v>
+      </c>
+      <c r="L109" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110">
+        <v>12120845</v>
+      </c>
+      <c r="F110">
+        <v>8549040</v>
+      </c>
+      <c r="G110" t="s">
+        <v>332</v>
+      </c>
+      <c r="H110" t="s">
+        <v>426</v>
+      </c>
+      <c r="I110" t="s">
+        <v>434</v>
+      </c>
+      <c r="J110" t="s">
+        <v>435</v>
+      </c>
+      <c r="K110" t="s">
+        <v>437</v>
+      </c>
+      <c r="L110" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>22</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111">
+        <v>12123667</v>
+      </c>
+      <c r="F111">
+        <v>8552404</v>
+      </c>
+      <c r="G111" t="s">
+        <v>333</v>
+      </c>
+      <c r="H111" t="s">
+        <v>427</v>
+      </c>
+      <c r="I111" t="s">
+        <v>434</v>
+      </c>
+      <c r="J111" t="s">
+        <v>436</v>
+      </c>
+      <c r="K111" t="s">
+        <v>437</v>
+      </c>
+      <c r="L111" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112">
+        <v>12124385</v>
+      </c>
+      <c r="F112">
+        <v>8553278</v>
+      </c>
+      <c r="G112" t="s">
+        <v>334</v>
+      </c>
+      <c r="H112" t="s">
+        <v>427</v>
+      </c>
+      <c r="I112" t="s">
+        <v>434</v>
+      </c>
+      <c r="J112" t="s">
+        <v>435</v>
+      </c>
+      <c r="K112" t="s">
+        <v>437</v>
+      </c>
+      <c r="L112" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>24</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113">
+        <v>12124548</v>
+      </c>
+      <c r="F113">
+        <v>8553497</v>
+      </c>
+      <c r="G113" t="s">
+        <v>335</v>
+      </c>
+      <c r="H113" t="s">
+        <v>427</v>
+      </c>
+      <c r="I113" t="s">
+        <v>434</v>
+      </c>
+      <c r="J113" t="s">
+        <v>435</v>
+      </c>
+      <c r="K113" t="s">
+        <v>437</v>
+      </c>
+      <c r="L113" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>22</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114">
+        <v>12114464</v>
+      </c>
+      <c r="F114">
+        <v>8541509</v>
+      </c>
+      <c r="G114" t="s">
+        <v>336</v>
+      </c>
+      <c r="H114" t="s">
+        <v>433</v>
+      </c>
+      <c r="I114" t="s">
+        <v>434</v>
+      </c>
+      <c r="J114" t="s">
+        <v>436</v>
+      </c>
+      <c r="K114" t="s">
+        <v>437</v>
+      </c>
+      <c r="L114" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115">
+        <v>12115176</v>
+      </c>
+      <c r="F115">
+        <v>8542385</v>
+      </c>
+      <c r="G115" t="s">
+        <v>337</v>
+      </c>
+      <c r="H115" t="s">
+        <v>433</v>
+      </c>
+      <c r="I115" t="s">
+        <v>434</v>
+      </c>
+      <c r="J115" t="s">
+        <v>436</v>
+      </c>
+      <c r="K115" t="s">
+        <v>437</v>
+      </c>
+      <c r="L115" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>136</v>
+      </c>
+      <c r="E116">
+        <v>12115364</v>
+      </c>
+      <c r="F116">
+        <v>8542675</v>
+      </c>
+      <c r="G116" t="s">
+        <v>338</v>
+      </c>
+      <c r="H116" t="s">
+        <v>433</v>
+      </c>
+      <c r="I116" t="s">
+        <v>434</v>
+      </c>
+      <c r="J116" t="s">
+        <v>435</v>
+      </c>
+      <c r="K116" t="s">
+        <v>437</v>
+      </c>
+      <c r="L116" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117">
+        <v>12115371</v>
+      </c>
+      <c r="F117">
+        <v>8542681</v>
+      </c>
+      <c r="G117" t="s">
+        <v>339</v>
+      </c>
+      <c r="H117" t="s">
+        <v>433</v>
+      </c>
+      <c r="I117" t="s">
+        <v>434</v>
+      </c>
+      <c r="J117" t="s">
+        <v>435</v>
+      </c>
+      <c r="K117" t="s">
+        <v>437</v>
+      </c>
+      <c r="L117" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118">
+        <v>12115608</v>
+      </c>
+      <c r="F118">
+        <v>8542947</v>
+      </c>
+      <c r="G118" t="s">
+        <v>340</v>
+      </c>
+      <c r="H118" t="s">
+        <v>424</v>
+      </c>
+      <c r="I118" t="s">
+        <v>434</v>
+      </c>
+      <c r="J118" t="s">
+        <v>435</v>
+      </c>
+      <c r="K118" t="s">
+        <v>437</v>
+      </c>
+      <c r="L118" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>139</v>
+      </c>
+      <c r="E119">
+        <v>12115704</v>
+      </c>
+      <c r="F119">
+        <v>8543055</v>
+      </c>
+      <c r="G119" t="s">
+        <v>341</v>
+      </c>
+      <c r="H119" t="s">
+        <v>424</v>
+      </c>
+      <c r="I119" t="s">
+        <v>434</v>
+      </c>
+      <c r="J119" t="s">
+        <v>435</v>
+      </c>
+      <c r="K119" t="s">
+        <v>437</v>
+      </c>
+      <c r="L119" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" t="s">
+        <v>140</v>
+      </c>
+      <c r="E120">
+        <v>12116813</v>
+      </c>
+      <c r="F120">
+        <v>8544320</v>
+      </c>
+      <c r="G120" t="s">
+        <v>342</v>
+      </c>
+      <c r="H120" t="s">
+        <v>424</v>
+      </c>
+      <c r="I120" t="s">
+        <v>434</v>
+      </c>
+      <c r="J120" t="s">
+        <v>435</v>
+      </c>
+      <c r="K120" t="s">
+        <v>437</v>
+      </c>
+      <c r="L120" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>29</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" t="s">
+        <v>141</v>
+      </c>
+      <c r="E121">
+        <v>12117295</v>
+      </c>
+      <c r="F121">
+        <v>8544923</v>
+      </c>
+      <c r="G121" t="s">
+        <v>258</v>
+      </c>
+      <c r="H121" t="s">
+        <v>424</v>
+      </c>
+      <c r="I121" t="s">
+        <v>434</v>
+      </c>
+      <c r="J121" t="s">
+        <v>435</v>
+      </c>
+      <c r="K121" t="s">
+        <v>437</v>
+      </c>
+      <c r="L121" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>30</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122">
+        <v>12117425</v>
+      </c>
+      <c r="F122">
+        <v>8545074</v>
+      </c>
+      <c r="G122" t="s">
+        <v>343</v>
+      </c>
+      <c r="H122" t="s">
+        <v>424</v>
+      </c>
+      <c r="I122" t="s">
+        <v>434</v>
+      </c>
+      <c r="J122" t="s">
+        <v>435</v>
+      </c>
+      <c r="K122" t="s">
+        <v>437</v>
+      </c>
+      <c r="L122" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123">
+        <v>12117653</v>
+      </c>
+      <c r="F123">
+        <v>8545314</v>
+      </c>
+      <c r="G123" t="s">
+        <v>344</v>
+      </c>
+      <c r="H123" t="s">
+        <v>425</v>
+      </c>
+      <c r="I123" t="s">
+        <v>434</v>
+      </c>
+      <c r="J123" t="s">
+        <v>435</v>
+      </c>
+      <c r="K123" t="s">
+        <v>437</v>
+      </c>
+      <c r="L123" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>32</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124">
+        <v>12117807</v>
+      </c>
+      <c r="F124">
+        <v>8545515</v>
+      </c>
+      <c r="G124" t="s">
+        <v>345</v>
+      </c>
+      <c r="H124" t="s">
+        <v>425</v>
+      </c>
+      <c r="I124" t="s">
+        <v>434</v>
+      </c>
+      <c r="J124" t="s">
+        <v>435</v>
+      </c>
+      <c r="K124" t="s">
+        <v>437</v>
+      </c>
+      <c r="L124" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125">
+        <v>12118108</v>
+      </c>
+      <c r="F125">
+        <v>8545814</v>
+      </c>
+      <c r="G125" t="s">
+        <v>346</v>
+      </c>
+      <c r="H125" t="s">
+        <v>425</v>
+      </c>
+      <c r="I125" t="s">
+        <v>434</v>
+      </c>
+      <c r="J125" t="s">
+        <v>435</v>
+      </c>
+      <c r="K125" t="s">
+        <v>437</v>
+      </c>
+      <c r="L125" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>34</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>146</v>
+      </c>
+      <c r="E126">
+        <v>12119854</v>
+      </c>
+      <c r="F126">
+        <v>8547877</v>
+      </c>
+      <c r="G126" t="s">
+        <v>275</v>
+      </c>
+      <c r="H126" t="s">
+        <v>426</v>
+      </c>
+      <c r="I126" t="s">
+        <v>434</v>
+      </c>
+      <c r="J126" t="s">
+        <v>435</v>
+      </c>
+      <c r="K126" t="s">
+        <v>437</v>
+      </c>
+      <c r="L126" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>35</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127">
+        <v>12120162</v>
+      </c>
+      <c r="F127">
+        <v>8548210</v>
+      </c>
+      <c r="G127" t="s">
+        <v>347</v>
+      </c>
+      <c r="H127" t="s">
+        <v>426</v>
+      </c>
+      <c r="I127" t="s">
+        <v>434</v>
+      </c>
+      <c r="J127" t="s">
+        <v>436</v>
+      </c>
+      <c r="K127" t="s">
+        <v>437</v>
+      </c>
+      <c r="L127" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>36</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>148</v>
+      </c>
+      <c r="E128">
+        <v>12121637</v>
+      </c>
+      <c r="F128">
+        <v>8549941</v>
+      </c>
+      <c r="G128" t="s">
+        <v>348</v>
+      </c>
+      <c r="H128" t="s">
+        <v>427</v>
+      </c>
+      <c r="I128" t="s">
+        <v>434</v>
+      </c>
+      <c r="J128" t="s">
+        <v>435</v>
+      </c>
+      <c r="K128" t="s">
+        <v>437</v>
+      </c>
+      <c r="L128" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>37</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
+        <v>149</v>
+      </c>
+      <c r="E129">
+        <v>12123477</v>
+      </c>
+      <c r="F129">
+        <v>8552214</v>
+      </c>
+      <c r="G129" t="s">
+        <v>349</v>
+      </c>
+      <c r="H129" t="s">
+        <v>427</v>
+      </c>
+      <c r="I129" t="s">
+        <v>434</v>
+      </c>
+      <c r="J129" t="s">
+        <v>435</v>
+      </c>
+      <c r="K129" t="s">
+        <v>437</v>
+      </c>
+      <c r="L129" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>38</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130">
+        <v>12123809</v>
+      </c>
+      <c r="F130">
+        <v>8552569</v>
+      </c>
+      <c r="G130" t="s">
+        <v>350</v>
+      </c>
+      <c r="H130" t="s">
+        <v>427</v>
+      </c>
+      <c r="I130" t="s">
+        <v>434</v>
+      </c>
+      <c r="J130" t="s">
+        <v>435</v>
+      </c>
+      <c r="K130" t="s">
+        <v>437</v>
+      </c>
+      <c r="L130" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131">
+        <v>12124040</v>
+      </c>
+      <c r="F131">
+        <v>8552899</v>
+      </c>
+      <c r="G131" t="s">
+        <v>351</v>
+      </c>
+      <c r="H131" t="s">
+        <v>427</v>
+      </c>
+      <c r="I131" t="s">
+        <v>434</v>
+      </c>
+      <c r="J131" t="s">
+        <v>435</v>
+      </c>
+      <c r="K131" t="s">
+        <v>437</v>
+      </c>
+      <c r="L131" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>40</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132">
+        <v>12124713</v>
+      </c>
+      <c r="F132">
+        <v>8553657</v>
+      </c>
+      <c r="G132" t="s">
+        <v>352</v>
+      </c>
+      <c r="H132" t="s">
+        <v>427</v>
+      </c>
+      <c r="I132" t="s">
+        <v>434</v>
+      </c>
+      <c r="J132" t="s">
+        <v>435</v>
+      </c>
+      <c r="K132" t="s">
+        <v>437</v>
+      </c>
+      <c r="L132" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>41</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133">
+        <v>12124745</v>
+      </c>
+      <c r="F133">
+        <v>8553687</v>
+      </c>
+      <c r="G133" t="s">
+        <v>353</v>
+      </c>
+      <c r="H133" t="s">
+        <v>427</v>
+      </c>
+      <c r="I133" t="s">
+        <v>434</v>
+      </c>
+      <c r="J133" t="s">
+        <v>435</v>
+      </c>
+      <c r="K133" t="s">
+        <v>437</v>
+      </c>
+      <c r="L133" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134">
+        <v>12125764</v>
+      </c>
+      <c r="F134">
+        <v>8555001</v>
+      </c>
+      <c r="G134" t="s">
+        <v>354</v>
+      </c>
+      <c r="H134" t="s">
+        <v>428</v>
+      </c>
+      <c r="I134" t="s">
+        <v>434</v>
+      </c>
+      <c r="J134" t="s">
+        <v>435</v>
+      </c>
+      <c r="K134" t="s">
+        <v>437</v>
+      </c>
+      <c r="L134" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135">
+        <v>12126489</v>
+      </c>
+      <c r="F135">
+        <v>8555832</v>
+      </c>
+      <c r="G135" t="s">
+        <v>355</v>
+      </c>
+      <c r="H135" t="s">
+        <v>428</v>
+      </c>
+      <c r="I135" t="s">
+        <v>434</v>
+      </c>
+      <c r="J135" t="s">
+        <v>436</v>
+      </c>
+      <c r="K135" t="s">
+        <v>437</v>
+      </c>
+      <c r="L135" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>156</v>
+      </c>
+      <c r="E136">
+        <v>12127068</v>
+      </c>
+      <c r="F136">
+        <v>8556613</v>
+      </c>
+      <c r="G136" t="s">
+        <v>356</v>
+      </c>
+      <c r="H136" t="s">
+        <v>428</v>
+      </c>
+      <c r="I136" t="s">
+        <v>434</v>
+      </c>
+      <c r="J136" t="s">
+        <v>435</v>
+      </c>
+      <c r="K136" t="s">
+        <v>437</v>
+      </c>
+      <c r="L136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137">
+        <v>12127962</v>
+      </c>
+      <c r="F137">
+        <v>8557685</v>
+      </c>
+      <c r="G137" t="s">
+        <v>357</v>
+      </c>
+      <c r="H137" t="s">
+        <v>429</v>
+      </c>
+      <c r="I137" t="s">
+        <v>434</v>
+      </c>
+      <c r="J137" t="s">
+        <v>435</v>
+      </c>
+      <c r="K137" t="s">
+        <v>437</v>
+      </c>
+      <c r="L137" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138">
+        <v>12128080</v>
+      </c>
+      <c r="F138">
+        <v>8557777</v>
+      </c>
+      <c r="G138" t="s">
+        <v>358</v>
+      </c>
+      <c r="H138" t="s">
+        <v>429</v>
+      </c>
+      <c r="I138" t="s">
+        <v>434</v>
+      </c>
+      <c r="J138" t="s">
+        <v>435</v>
+      </c>
+      <c r="K138" t="s">
+        <v>437</v>
+      </c>
+      <c r="L138" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139">
+        <v>12128762</v>
+      </c>
+      <c r="F139">
+        <v>8558562</v>
+      </c>
+      <c r="G139" t="s">
+        <v>359</v>
+      </c>
+      <c r="H139" t="s">
+        <v>429</v>
+      </c>
+      <c r="I139" t="s">
+        <v>434</v>
+      </c>
+      <c r="J139" t="s">
+        <v>435</v>
+      </c>
+      <c r="K139" t="s">
+        <v>437</v>
+      </c>
+      <c r="L139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>160</v>
+      </c>
+      <c r="E140">
+        <v>12128890</v>
+      </c>
+      <c r="F140">
+        <v>8558719</v>
+      </c>
+      <c r="G140" t="s">
+        <v>360</v>
+      </c>
+      <c r="H140" t="s">
+        <v>429</v>
+      </c>
+      <c r="I140" t="s">
+        <v>434</v>
+      </c>
+      <c r="J140" t="s">
+        <v>436</v>
+      </c>
+      <c r="K140" t="s">
+        <v>437</v>
+      </c>
+      <c r="L140" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>161</v>
+      </c>
+      <c r="E141">
+        <v>12131069</v>
+      </c>
+      <c r="F141">
+        <v>8561339</v>
+      </c>
+      <c r="G141" t="s">
+        <v>361</v>
+      </c>
+      <c r="H141" t="s">
+        <v>431</v>
+      </c>
+      <c r="I141" t="s">
+        <v>434</v>
+      </c>
+      <c r="J141" t="s">
+        <v>436</v>
+      </c>
+      <c r="K141" t="s">
+        <v>437</v>
+      </c>
+      <c r="L141" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142">
+        <v>12131087</v>
+      </c>
+      <c r="F142">
+        <v>8561353</v>
+      </c>
+      <c r="G142" t="s">
+        <v>362</v>
+      </c>
+      <c r="H142" t="s">
+        <v>431</v>
+      </c>
+      <c r="I142" t="s">
+        <v>434</v>
+      </c>
+      <c r="J142" t="s">
+        <v>435</v>
+      </c>
+      <c r="K142" t="s">
+        <v>437</v>
+      </c>
+      <c r="L142" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143">
+        <v>12131356</v>
+      </c>
+      <c r="F143">
+        <v>8561682</v>
+      </c>
+      <c r="G143" t="s">
+        <v>363</v>
+      </c>
+      <c r="H143" t="s">
+        <v>431</v>
+      </c>
+      <c r="I143" t="s">
+        <v>434</v>
+      </c>
+      <c r="J143" t="s">
+        <v>435</v>
+      </c>
+      <c r="K143" t="s">
+        <v>437</v>
+      </c>
+      <c r="L143" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>164</v>
+      </c>
+      <c r="E144">
+        <v>12133043</v>
+      </c>
+      <c r="F144">
+        <v>8563729</v>
+      </c>
+      <c r="G144" t="s">
+        <v>364</v>
+      </c>
+      <c r="H144" t="s">
+        <v>432</v>
+      </c>
+      <c r="I144" t="s">
+        <v>434</v>
+      </c>
+      <c r="J144" t="s">
+        <v>435</v>
+      </c>
+      <c r="K144" t="s">
+        <v>437</v>
+      </c>
+      <c r="L144" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>165</v>
+      </c>
+      <c r="E145">
+        <v>12133449</v>
+      </c>
+      <c r="F145">
+        <v>8564123</v>
+      </c>
+      <c r="G145" t="s">
+        <v>365</v>
+      </c>
+      <c r="H145" t="s">
+        <v>432</v>
+      </c>
+      <c r="I145" t="s">
+        <v>434</v>
+      </c>
+      <c r="J145" t="s">
+        <v>435</v>
+      </c>
+      <c r="K145" t="s">
+        <v>437</v>
+      </c>
+      <c r="L145" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>166</v>
+      </c>
+      <c r="E146">
+        <v>12134565</v>
+      </c>
+      <c r="F146">
+        <v>8565518</v>
+      </c>
+      <c r="G146" t="s">
+        <v>366</v>
+      </c>
+      <c r="H146" t="s">
+        <v>432</v>
+      </c>
+      <c r="I146" t="s">
+        <v>434</v>
+      </c>
+      <c r="J146" t="s">
+        <v>435</v>
+      </c>
+      <c r="K146" t="s">
+        <v>437</v>
+      </c>
+      <c r="L146" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147">
+        <v>12134746</v>
+      </c>
+      <c r="F147">
+        <v>8565741</v>
+      </c>
+      <c r="G147" t="s">
+        <v>367</v>
+      </c>
+      <c r="H147" t="s">
+        <v>433</v>
+      </c>
+      <c r="I147" t="s">
+        <v>434</v>
+      </c>
+      <c r="J147" t="s">
+        <v>436</v>
+      </c>
+      <c r="K147" t="s">
+        <v>437</v>
+      </c>
+      <c r="L147" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148">
+        <v>12135905</v>
+      </c>
+      <c r="F148">
+        <v>8567134</v>
+      </c>
+      <c r="G148" t="s">
+        <v>368</v>
+      </c>
+      <c r="H148" t="s">
+        <v>433</v>
+      </c>
+      <c r="I148" t="s">
+        <v>434</v>
+      </c>
+      <c r="J148" t="s">
+        <v>436</v>
+      </c>
+      <c r="K148" t="s">
+        <v>437</v>
+      </c>
+      <c r="L148" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>169</v>
+      </c>
+      <c r="E149">
+        <v>12136582</v>
+      </c>
+      <c r="F149">
+        <v>8567898</v>
+      </c>
+      <c r="G149" t="s">
+        <v>369</v>
+      </c>
+      <c r="H149" t="s">
+        <v>424</v>
+      </c>
+      <c r="I149" t="s">
+        <v>434</v>
+      </c>
+      <c r="J149" t="s">
+        <v>435</v>
+      </c>
+      <c r="K149" t="s">
+        <v>437</v>
+      </c>
+      <c r="L149" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>170</v>
+      </c>
+      <c r="E150">
+        <v>12136698</v>
+      </c>
+      <c r="F150">
+        <v>8568013</v>
+      </c>
+      <c r="G150" t="s">
+        <v>370</v>
+      </c>
+      <c r="H150" t="s">
+        <v>424</v>
+      </c>
+      <c r="I150" t="s">
+        <v>434</v>
+      </c>
+      <c r="J150" t="s">
+        <v>435</v>
+      </c>
+      <c r="K150" t="s">
+        <v>437</v>
+      </c>
+      <c r="L150" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>171</v>
+      </c>
+      <c r="E151">
+        <v>12139649</v>
+      </c>
+      <c r="F151">
+        <v>8571710</v>
+      </c>
+      <c r="G151" t="s">
+        <v>371</v>
+      </c>
+      <c r="H151" t="s">
+        <v>425</v>
+      </c>
+      <c r="I151" t="s">
+        <v>434</v>
+      </c>
+      <c r="J151" t="s">
+        <v>435</v>
+      </c>
+      <c r="K151" t="s">
+        <v>437</v>
+      </c>
+      <c r="L151" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>172</v>
+      </c>
+      <c r="E152">
+        <v>12140393</v>
+      </c>
+      <c r="F152">
+        <v>8572530</v>
+      </c>
+      <c r="G152" t="s">
+        <v>372</v>
+      </c>
+      <c r="H152" t="s">
+        <v>426</v>
+      </c>
+      <c r="I152" t="s">
+        <v>434</v>
+      </c>
+      <c r="J152" t="s">
+        <v>435</v>
+      </c>
+      <c r="K152" t="s">
+        <v>437</v>
+      </c>
+      <c r="L152" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>173</v>
+      </c>
+      <c r="E153">
+        <v>12140514</v>
+      </c>
+      <c r="F153">
+        <v>8572671</v>
+      </c>
+      <c r="G153" t="s">
+        <v>373</v>
+      </c>
+      <c r="H153" t="s">
+        <v>426</v>
+      </c>
+      <c r="I153" t="s">
+        <v>434</v>
+      </c>
+      <c r="J153" t="s">
+        <v>435</v>
+      </c>
+      <c r="K153" t="s">
+        <v>437</v>
+      </c>
+      <c r="L153" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" t="s">
+        <v>174</v>
+      </c>
+      <c r="E154">
+        <v>12140918</v>
+      </c>
+      <c r="F154">
+        <v>8573130</v>
+      </c>
+      <c r="G154" t="s">
+        <v>374</v>
+      </c>
+      <c r="H154" t="s">
+        <v>426</v>
+      </c>
+      <c r="I154" t="s">
+        <v>434</v>
+      </c>
+      <c r="J154" t="s">
+        <v>436</v>
+      </c>
+      <c r="K154" t="s">
+        <v>437</v>
+      </c>
+      <c r="L154" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" t="s">
+        <v>175</v>
+      </c>
+      <c r="E155">
+        <v>12140922</v>
+      </c>
+      <c r="F155">
+        <v>8573184</v>
+      </c>
+      <c r="G155" t="s">
+        <v>368</v>
+      </c>
+      <c r="H155" t="s">
+        <v>426</v>
+      </c>
+      <c r="I155" t="s">
+        <v>434</v>
+      </c>
+      <c r="J155" t="s">
+        <v>436</v>
+      </c>
+      <c r="K155" t="s">
+        <v>437</v>
+      </c>
+      <c r="L155" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>22</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156">
+        <v>12141494</v>
+      </c>
+      <c r="F156">
+        <v>8573853</v>
+      </c>
+      <c r="G156" t="s">
+        <v>375</v>
+      </c>
+      <c r="H156" t="s">
+        <v>426</v>
+      </c>
+      <c r="I156" t="s">
+        <v>434</v>
+      </c>
+      <c r="J156" t="s">
+        <v>435</v>
+      </c>
+      <c r="K156" t="s">
+        <v>437</v>
+      </c>
+      <c r="L156" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>177</v>
+      </c>
+      <c r="E157">
+        <v>12142270</v>
+      </c>
+      <c r="F157">
+        <v>8574731</v>
+      </c>
+      <c r="G157" t="s">
+        <v>376</v>
+      </c>
+      <c r="H157" t="s">
+        <v>427</v>
+      </c>
+      <c r="I157" t="s">
+        <v>434</v>
+      </c>
+      <c r="J157" t="s">
+        <v>435</v>
+      </c>
+      <c r="K157" t="s">
+        <v>437</v>
+      </c>
+      <c r="L157" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" t="s">
+        <v>178</v>
+      </c>
+      <c r="E158">
+        <v>12127282</v>
+      </c>
+      <c r="F158">
+        <v>8556843</v>
+      </c>
+      <c r="G158" t="s">
+        <v>377</v>
+      </c>
+      <c r="H158" t="s">
+        <v>428</v>
+      </c>
+      <c r="I158" t="s">
+        <v>434</v>
+      </c>
+      <c r="J158" t="s">
+        <v>436</v>
+      </c>
+      <c r="K158" t="s">
+        <v>437</v>
+      </c>
+      <c r="L158" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" t="s">
+        <v>179</v>
+      </c>
+      <c r="E159">
+        <v>12127786</v>
+      </c>
+      <c r="F159">
+        <v>8557431</v>
+      </c>
+      <c r="G159" t="s">
+        <v>378</v>
+      </c>
+      <c r="H159" t="s">
+        <v>429</v>
+      </c>
+      <c r="I159" t="s">
+        <v>434</v>
+      </c>
+      <c r="J159" t="s">
+        <v>435</v>
+      </c>
+      <c r="K159" t="s">
+        <v>437</v>
+      </c>
+      <c r="L159" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" t="s">
+        <v>180</v>
+      </c>
+      <c r="E160">
+        <v>12127895</v>
+      </c>
+      <c r="F160">
+        <v>8557578</v>
+      </c>
+      <c r="G160" t="s">
+        <v>379</v>
+      </c>
+      <c r="H160" t="s">
+        <v>429</v>
+      </c>
+      <c r="I160" t="s">
+        <v>434</v>
+      </c>
+      <c r="J160" t="s">
+        <v>435</v>
+      </c>
+      <c r="K160" t="s">
+        <v>437</v>
+      </c>
+      <c r="L160" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" t="s">
+        <v>181</v>
+      </c>
+      <c r="E161">
+        <v>12128227</v>
+      </c>
+      <c r="F161">
+        <v>8557918</v>
+      </c>
+      <c r="G161" t="s">
+        <v>380</v>
+      </c>
+      <c r="H161" t="s">
+        <v>429</v>
+      </c>
+      <c r="I161" t="s">
+        <v>434</v>
+      </c>
+      <c r="J161" t="s">
+        <v>436</v>
+      </c>
+      <c r="K161" t="s">
+        <v>437</v>
+      </c>
+      <c r="L161" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" t="s">
+        <v>182</v>
+      </c>
+      <c r="E162">
+        <v>12129072</v>
+      </c>
+      <c r="F162">
+        <v>8558959</v>
+      </c>
+      <c r="G162" t="s">
+        <v>381</v>
+      </c>
+      <c r="H162" t="s">
+        <v>429</v>
+      </c>
+      <c r="I162" t="s">
+        <v>434</v>
+      </c>
+      <c r="J162" t="s">
+        <v>435</v>
+      </c>
+      <c r="K162" t="s">
+        <v>437</v>
+      </c>
+      <c r="L162" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" t="s">
+        <v>183</v>
+      </c>
+      <c r="E163">
+        <v>12129172</v>
+      </c>
+      <c r="F163">
+        <v>8559077</v>
+      </c>
+      <c r="G163" t="s">
+        <v>377</v>
+      </c>
+      <c r="H163" t="s">
+        <v>429</v>
+      </c>
+      <c r="I163" t="s">
+        <v>434</v>
+      </c>
+      <c r="J163" t="s">
+        <v>435</v>
+      </c>
+      <c r="K163" t="s">
+        <v>437</v>
+      </c>
+      <c r="L163" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164">
+        <v>12129465</v>
+      </c>
+      <c r="F164">
+        <v>8559403</v>
+      </c>
+      <c r="G164" t="s">
+        <v>382</v>
+      </c>
+      <c r="H164" t="s">
+        <v>430</v>
+      </c>
+      <c r="I164" t="s">
+        <v>434</v>
+      </c>
+      <c r="J164" t="s">
+        <v>435</v>
+      </c>
+      <c r="K164" t="s">
+        <v>437</v>
+      </c>
+      <c r="L164" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" t="s">
+        <v>185</v>
+      </c>
+      <c r="E165">
+        <v>12129632</v>
+      </c>
+      <c r="F165">
+        <v>8559587</v>
+      </c>
+      <c r="G165" t="s">
+        <v>383</v>
+      </c>
+      <c r="H165" t="s">
+        <v>430</v>
+      </c>
+      <c r="I165" t="s">
+        <v>434</v>
+      </c>
+      <c r="J165" t="s">
+        <v>435</v>
+      </c>
+      <c r="K165" t="s">
+        <v>437</v>
+      </c>
+      <c r="L165" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" t="s">
+        <v>186</v>
+      </c>
+      <c r="E166">
+        <v>12129687</v>
+      </c>
+      <c r="F166">
+        <v>8559637</v>
+      </c>
+      <c r="G166" t="s">
+        <v>384</v>
+      </c>
+      <c r="H166" t="s">
+        <v>430</v>
+      </c>
+      <c r="I166" t="s">
+        <v>434</v>
+      </c>
+      <c r="J166" t="s">
+        <v>436</v>
+      </c>
+      <c r="K166" t="s">
+        <v>437</v>
+      </c>
+      <c r="L166" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" t="s">
+        <v>187</v>
+      </c>
+      <c r="E167">
+        <v>12129813</v>
+      </c>
+      <c r="F167">
+        <v>8559796</v>
+      </c>
+      <c r="G167" t="s">
+        <v>385</v>
+      </c>
+      <c r="H167" t="s">
+        <v>430</v>
+      </c>
+      <c r="I167" t="s">
+        <v>434</v>
+      </c>
+      <c r="J167" t="s">
+        <v>435</v>
+      </c>
+      <c r="K167" t="s">
+        <v>437</v>
+      </c>
+      <c r="L167" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" t="s">
+        <v>188</v>
+      </c>
+      <c r="E168">
+        <v>12130269</v>
+      </c>
+      <c r="F168">
+        <v>8560331</v>
+      </c>
+      <c r="G168" t="s">
+        <v>386</v>
+      </c>
+      <c r="H168" t="s">
+        <v>430</v>
+      </c>
+      <c r="I168" t="s">
+        <v>434</v>
+      </c>
+      <c r="J168" t="s">
+        <v>435</v>
+      </c>
+      <c r="K168" t="s">
+        <v>437</v>
+      </c>
+      <c r="L168" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E169">
+        <v>12130896</v>
+      </c>
+      <c r="F169">
+        <v>8561163</v>
+      </c>
+      <c r="G169" t="s">
+        <v>387</v>
+      </c>
+      <c r="H169" t="s">
+        <v>430</v>
+      </c>
+      <c r="I169" t="s">
+        <v>434</v>
+      </c>
+      <c r="J169" t="s">
+        <v>435</v>
+      </c>
+      <c r="K169" t="s">
+        <v>437</v>
+      </c>
+      <c r="L169" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" t="s">
+        <v>190</v>
+      </c>
+      <c r="E170">
+        <v>12130972</v>
+      </c>
+      <c r="F170">
+        <v>8561243</v>
+      </c>
+      <c r="G170" t="s">
+        <v>388</v>
+      </c>
+      <c r="H170" t="s">
+        <v>430</v>
+      </c>
+      <c r="I170" t="s">
+        <v>434</v>
+      </c>
+      <c r="J170" t="s">
+        <v>435</v>
+      </c>
+      <c r="K170" t="s">
+        <v>437</v>
+      </c>
+      <c r="L170" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" t="s">
+        <v>191</v>
+      </c>
+      <c r="E171">
+        <v>12131900</v>
+      </c>
+      <c r="F171">
+        <v>8562331</v>
+      </c>
+      <c r="G171" t="s">
+        <v>389</v>
+      </c>
+      <c r="H171" t="s">
+        <v>431</v>
+      </c>
+      <c r="I171" t="s">
+        <v>434</v>
+      </c>
+      <c r="J171" t="s">
+        <v>435</v>
+      </c>
+      <c r="K171" t="s">
+        <v>437</v>
+      </c>
+      <c r="L171" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" t="s">
+        <v>192</v>
+      </c>
+      <c r="E172">
+        <v>12132044</v>
+      </c>
+      <c r="F172">
+        <v>8562541</v>
+      </c>
+      <c r="G172" t="s">
+        <v>390</v>
+      </c>
+      <c r="H172" t="s">
+        <v>431</v>
+      </c>
+      <c r="I172" t="s">
+        <v>434</v>
+      </c>
+      <c r="J172" t="s">
+        <v>435</v>
+      </c>
+      <c r="K172" t="s">
+        <v>437</v>
+      </c>
+      <c r="L172" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" t="s">
+        <v>193</v>
+      </c>
+      <c r="E173">
+        <v>12132127</v>
+      </c>
+      <c r="F173">
+        <v>8562667</v>
+      </c>
+      <c r="G173" t="s">
+        <v>391</v>
+      </c>
+      <c r="H173" t="s">
+        <v>431</v>
+      </c>
+      <c r="I173" t="s">
+        <v>434</v>
+      </c>
+      <c r="J173" t="s">
+        <v>435</v>
+      </c>
+      <c r="K173" t="s">
+        <v>437</v>
+      </c>
+      <c r="L173" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>16</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" t="s">
+        <v>194</v>
+      </c>
+      <c r="E174">
+        <v>12134040</v>
+      </c>
+      <c r="F174">
+        <v>8564877</v>
+      </c>
+      <c r="G174" t="s">
+        <v>392</v>
+      </c>
+      <c r="H174" t="s">
+        <v>432</v>
+      </c>
+      <c r="I174" t="s">
+        <v>434</v>
+      </c>
+      <c r="J174" t="s">
+        <v>435</v>
+      </c>
+      <c r="K174" t="s">
+        <v>437</v>
+      </c>
+      <c r="L174" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>17</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" t="s">
+        <v>195</v>
+      </c>
+      <c r="E175">
+        <v>12134208</v>
+      </c>
+      <c r="F175">
+        <v>8565005</v>
+      </c>
+      <c r="G175" t="s">
+        <v>393</v>
+      </c>
+      <c r="H175" t="s">
+        <v>432</v>
+      </c>
+      <c r="I175" t="s">
+        <v>434</v>
+      </c>
+      <c r="J175" t="s">
+        <v>435</v>
+      </c>
+      <c r="K175" t="s">
+        <v>437</v>
+      </c>
+      <c r="L175" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" t="s">
+        <v>196</v>
+      </c>
+      <c r="E176">
+        <v>12134263</v>
+      </c>
+      <c r="F176">
+        <v>8565115</v>
+      </c>
+      <c r="G176" t="s">
+        <v>394</v>
+      </c>
+      <c r="H176" t="s">
+        <v>432</v>
+      </c>
+      <c r="I176" t="s">
+        <v>434</v>
+      </c>
+      <c r="J176" t="s">
+        <v>435</v>
+      </c>
+      <c r="K176" t="s">
+        <v>437</v>
+      </c>
+      <c r="L176" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" t="s">
+        <v>197</v>
+      </c>
+      <c r="E177">
+        <v>12134909</v>
+      </c>
+      <c r="F177">
+        <v>8565915</v>
+      </c>
+      <c r="G177" t="s">
+        <v>395</v>
+      </c>
+      <c r="H177" t="s">
+        <v>433</v>
+      </c>
+      <c r="I177" t="s">
+        <v>434</v>
+      </c>
+      <c r="J177" t="s">
+        <v>435</v>
+      </c>
+      <c r="K177" t="s">
+        <v>437</v>
+      </c>
+      <c r="L177" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" t="s">
+        <v>198</v>
+      </c>
+      <c r="E178">
+        <v>12135576</v>
+      </c>
+      <c r="F178">
+        <v>8566728</v>
+      </c>
+      <c r="G178" t="s">
+        <v>396</v>
+      </c>
+      <c r="H178" t="s">
+        <v>433</v>
+      </c>
+      <c r="I178" t="s">
+        <v>434</v>
+      </c>
+      <c r="J178" t="s">
+        <v>435</v>
+      </c>
+      <c r="K178" t="s">
+        <v>437</v>
+      </c>
+      <c r="L178" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" t="s">
+        <v>199</v>
+      </c>
+      <c r="E179">
+        <v>12135669</v>
+      </c>
+      <c r="F179">
+        <v>8566843</v>
+      </c>
+      <c r="G179" t="s">
+        <v>397</v>
+      </c>
+      <c r="H179" t="s">
+        <v>433</v>
+      </c>
+      <c r="I179" t="s">
+        <v>434</v>
+      </c>
+      <c r="J179" t="s">
+        <v>435</v>
+      </c>
+      <c r="K179" t="s">
+        <v>437</v>
+      </c>
+      <c r="L179" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>22</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" t="s">
+        <v>200</v>
+      </c>
+      <c r="E180">
+        <v>12135923</v>
+      </c>
+      <c r="F180">
+        <v>8567130</v>
+      </c>
+      <c r="G180" t="s">
+        <v>398</v>
+      </c>
+      <c r="H180" t="s">
+        <v>433</v>
+      </c>
+      <c r="I180" t="s">
+        <v>434</v>
+      </c>
+      <c r="J180" t="s">
+        <v>435</v>
+      </c>
+      <c r="K180" t="s">
+        <v>437</v>
+      </c>
+      <c r="L180" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>23</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" t="s">
+        <v>201</v>
+      </c>
+      <c r="E181">
+        <v>12136249</v>
+      </c>
+      <c r="F181">
+        <v>8567545</v>
+      </c>
+      <c r="G181" t="s">
+        <v>399</v>
+      </c>
+      <c r="H181" t="s">
+        <v>433</v>
+      </c>
+      <c r="I181" t="s">
+        <v>434</v>
+      </c>
+      <c r="J181" t="s">
+        <v>435</v>
+      </c>
+      <c r="K181" t="s">
+        <v>437</v>
+      </c>
+      <c r="L181" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>24</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" t="s">
+        <v>202</v>
+      </c>
+      <c r="E182">
+        <v>12137378</v>
+      </c>
+      <c r="F182">
+        <v>8568931</v>
+      </c>
+      <c r="G182" t="s">
+        <v>400</v>
+      </c>
+      <c r="H182" t="s">
+        <v>424</v>
+      </c>
+      <c r="I182" t="s">
+        <v>434</v>
+      </c>
+      <c r="J182" t="s">
+        <v>435</v>
+      </c>
+      <c r="K182" t="s">
+        <v>437</v>
+      </c>
+      <c r="L182" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>25</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" t="s">
+        <v>203</v>
+      </c>
+      <c r="E183">
+        <v>12137415</v>
+      </c>
+      <c r="F183">
+        <v>8568901</v>
+      </c>
+      <c r="G183" t="s">
+        <v>401</v>
+      </c>
+      <c r="H183" t="s">
+        <v>424</v>
+      </c>
+      <c r="I183" t="s">
+        <v>434</v>
+      </c>
+      <c r="J183" t="s">
+        <v>436</v>
+      </c>
+      <c r="K183" t="s">
+        <v>437</v>
+      </c>
+      <c r="L183" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" t="s">
+        <v>204</v>
+      </c>
+      <c r="E184">
+        <v>12138966</v>
+      </c>
+      <c r="F184">
+        <v>8570857</v>
+      </c>
+      <c r="G184" t="s">
+        <v>402</v>
+      </c>
+      <c r="H184" t="s">
+        <v>425</v>
+      </c>
+      <c r="I184" t="s">
+        <v>434</v>
+      </c>
+      <c r="J184" t="s">
+        <v>435</v>
+      </c>
+      <c r="K184" t="s">
+        <v>437</v>
+      </c>
+      <c r="L184" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>27</v>
+      </c>
+      <c r="B185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" t="s">
+        <v>205</v>
+      </c>
+      <c r="E185">
+        <v>12140388</v>
+      </c>
+      <c r="F185">
+        <v>8572535</v>
+      </c>
+      <c r="G185" t="s">
+        <v>403</v>
+      </c>
+      <c r="H185" t="s">
+        <v>426</v>
+      </c>
+      <c r="I185" t="s">
+        <v>434</v>
+      </c>
+      <c r="J185" t="s">
+        <v>435</v>
+      </c>
+      <c r="K185" t="s">
+        <v>437</v>
+      </c>
+      <c r="L185" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>28</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" t="s">
+        <v>206</v>
+      </c>
+      <c r="E186">
+        <v>12140772</v>
+      </c>
+      <c r="F186">
+        <v>8572962</v>
+      </c>
+      <c r="G186" t="s">
+        <v>404</v>
+      </c>
+      <c r="H186" t="s">
+        <v>426</v>
+      </c>
+      <c r="I186" t="s">
+        <v>434</v>
+      </c>
+      <c r="J186" t="s">
+        <v>435</v>
+      </c>
+      <c r="K186" t="s">
+        <v>437</v>
+      </c>
+      <c r="L186" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>29</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>207</v>
+      </c>
+      <c r="E187">
+        <v>12141009</v>
+      </c>
+      <c r="F187">
+        <v>8573232</v>
+      </c>
+      <c r="G187" t="s">
+        <v>405</v>
+      </c>
+      <c r="H187" t="s">
+        <v>426</v>
+      </c>
+      <c r="I187" t="s">
+        <v>434</v>
+      </c>
+      <c r="J187" t="s">
+        <v>435</v>
+      </c>
+      <c r="K187" t="s">
+        <v>437</v>
+      </c>
+      <c r="L187" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>30</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" t="s">
+        <v>208</v>
+      </c>
+      <c r="E188">
+        <v>12141979</v>
+      </c>
+      <c r="F188">
+        <v>8574393</v>
+      </c>
+      <c r="G188" t="s">
+        <v>406</v>
+      </c>
+      <c r="H188" t="s">
+        <v>427</v>
+      </c>
+      <c r="I188" t="s">
+        <v>434</v>
+      </c>
+      <c r="J188" t="s">
+        <v>435</v>
+      </c>
+      <c r="K188" t="s">
+        <v>437</v>
+      </c>
+      <c r="L188" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>31</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" t="s">
+        <v>209</v>
+      </c>
+      <c r="E189">
+        <v>12142637</v>
+      </c>
+      <c r="F189">
+        <v>8575143</v>
+      </c>
+      <c r="G189" t="s">
+        <v>407</v>
+      </c>
+      <c r="H189" t="s">
+        <v>427</v>
+      </c>
+      <c r="I189" t="s">
+        <v>434</v>
+      </c>
+      <c r="J189" t="s">
+        <v>435</v>
+      </c>
+      <c r="K189" t="s">
+        <v>437</v>
+      </c>
+      <c r="L189" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>32</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" t="s">
+        <v>210</v>
+      </c>
+      <c r="E190">
+        <v>12143473</v>
+      </c>
+      <c r="F190">
+        <v>8576202</v>
+      </c>
+      <c r="G190" t="s">
+        <v>408</v>
+      </c>
+      <c r="H190" t="s">
+        <v>427</v>
+      </c>
+      <c r="I190" t="s">
+        <v>434</v>
+      </c>
+      <c r="J190" t="s">
+        <v>435</v>
+      </c>
+      <c r="K190" t="s">
+        <v>437</v>
+      </c>
+      <c r="L190" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>33</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" t="s">
+        <v>211</v>
+      </c>
+      <c r="E191">
+        <v>12143688</v>
+      </c>
+      <c r="F191">
+        <v>8576509</v>
+      </c>
+      <c r="G191" t="s">
+        <v>409</v>
+      </c>
+      <c r="H191" t="s">
+        <v>427</v>
+      </c>
+      <c r="I191" t="s">
+        <v>434</v>
+      </c>
+      <c r="J191" t="s">
+        <v>435</v>
+      </c>
+      <c r="K191" t="s">
+        <v>437</v>
+      </c>
+      <c r="L191" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>34</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" t="s">
+        <v>212</v>
+      </c>
+      <c r="E192">
+        <v>12143713</v>
+      </c>
+      <c r="F192">
+        <v>8576536</v>
+      </c>
+      <c r="G192" t="s">
+        <v>410</v>
+      </c>
+      <c r="H192" t="s">
+        <v>427</v>
+      </c>
+      <c r="I192" t="s">
+        <v>434</v>
+      </c>
+      <c r="J192" t="s">
+        <v>435</v>
+      </c>
+      <c r="K192" t="s">
+        <v>437</v>
+      </c>
+      <c r="L192" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>35</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" t="s">
+        <v>213</v>
+      </c>
+      <c r="E193">
+        <v>12144046</v>
+      </c>
+      <c r="F193">
+        <v>8576958</v>
+      </c>
+      <c r="G193" t="s">
+        <v>411</v>
+      </c>
+      <c r="H193" t="s">
+        <v>427</v>
+      </c>
+      <c r="I193" t="s">
+        <v>434</v>
+      </c>
+      <c r="J193" t="s">
+        <v>436</v>
+      </c>
+      <c r="K193" t="s">
+        <v>437</v>
+      </c>
+      <c r="L193" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>36</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
+      </c>
+      <c r="E194">
+        <v>12144699</v>
+      </c>
+      <c r="F194">
+        <v>8577773</v>
+      </c>
+      <c r="G194" t="s">
+        <v>412</v>
+      </c>
+      <c r="H194" t="s">
+        <v>427</v>
+      </c>
+      <c r="I194" t="s">
+        <v>434</v>
+      </c>
+      <c r="J194" t="s">
+        <v>435</v>
+      </c>
+      <c r="K194" t="s">
+        <v>437</v>
+      </c>
+      <c r="L194" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" t="s">
+        <v>215</v>
+      </c>
+      <c r="E195">
+        <v>12144548</v>
+      </c>
+      <c r="F195">
+        <v>8577545</v>
+      </c>
+      <c r="G195" t="s">
+        <v>413</v>
+      </c>
+      <c r="H195" t="s">
+        <v>425</v>
+      </c>
+      <c r="I195" t="s">
+        <v>434</v>
+      </c>
+      <c r="J195" t="s">
+        <v>435</v>
+      </c>
+      <c r="K195" t="s">
+        <v>437</v>
+      </c>
+      <c r="L195" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>216</v>
+      </c>
+      <c r="E196">
+        <v>12144906</v>
+      </c>
+      <c r="F196">
+        <v>8578064</v>
+      </c>
+      <c r="G196" t="s">
+        <v>414</v>
+      </c>
+      <c r="H196" t="s">
+        <v>425</v>
+      </c>
+      <c r="I196" t="s">
+        <v>434</v>
+      </c>
+      <c r="J196" t="s">
+        <v>435</v>
+      </c>
+      <c r="K196" t="s">
+        <v>437</v>
+      </c>
+      <c r="L196" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>217</v>
+      </c>
+      <c r="E197">
+        <v>12145988</v>
+      </c>
+      <c r="F197">
+        <v>8579353</v>
+      </c>
+      <c r="G197" t="s">
+        <v>415</v>
+      </c>
+      <c r="H197" t="s">
+        <v>426</v>
+      </c>
+      <c r="I197" t="s">
+        <v>434</v>
+      </c>
+      <c r="J197" t="s">
+        <v>435</v>
+      </c>
+      <c r="K197" t="s">
+        <v>437</v>
+      </c>
+      <c r="L197" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>218</v>
+      </c>
+      <c r="E198">
+        <v>12146576</v>
+      </c>
+      <c r="F198">
+        <v>8580030</v>
+      </c>
+      <c r="G198" t="s">
+        <v>416</v>
+      </c>
+      <c r="H198" t="s">
+        <v>426</v>
+      </c>
+      <c r="I198" t="s">
+        <v>434</v>
+      </c>
+      <c r="J198" t="s">
+        <v>436</v>
+      </c>
+      <c r="K198" t="s">
+        <v>437</v>
+      </c>
+      <c r="L198" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E199">
+        <v>12146711</v>
+      </c>
+      <c r="F199">
+        <v>8580119</v>
+      </c>
+      <c r="G199" t="s">
+        <v>417</v>
+      </c>
+      <c r="H199" t="s">
+        <v>426</v>
+      </c>
+      <c r="I199" t="s">
+        <v>434</v>
+      </c>
+      <c r="J199" t="s">
+        <v>436</v>
+      </c>
+      <c r="K199" t="s">
+        <v>437</v>
+      </c>
+      <c r="L199" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>22</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" t="s">
+        <v>220</v>
+      </c>
+      <c r="E200">
+        <v>12146787</v>
+      </c>
+      <c r="F200">
+        <v>8580243</v>
+      </c>
+      <c r="G200" t="s">
+        <v>418</v>
+      </c>
+      <c r="H200" t="s">
+        <v>426</v>
+      </c>
+      <c r="I200" t="s">
+        <v>434</v>
+      </c>
+      <c r="J200" t="s">
+        <v>436</v>
+      </c>
+      <c r="K200" t="s">
+        <v>437</v>
+      </c>
+      <c r="L200" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" t="s">
+        <v>221</v>
+      </c>
+      <c r="E201">
+        <v>12147152</v>
+      </c>
+      <c r="F201">
+        <v>8580726</v>
+      </c>
+      <c r="G201" t="s">
+        <v>419</v>
+      </c>
+      <c r="H201" t="s">
+        <v>426</v>
+      </c>
+      <c r="I201" t="s">
+        <v>434</v>
+      </c>
+      <c r="J201" t="s">
+        <v>435</v>
+      </c>
+      <c r="K201" t="s">
+        <v>437</v>
+      </c>
+      <c r="L201" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202">
+        <v>24</v>
+      </c>
+      <c r="B202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" t="s">
+        <v>222</v>
+      </c>
+      <c r="E202">
+        <v>12147478</v>
+      </c>
+      <c r="F202">
+        <v>8230607</v>
+      </c>
+      <c r="G202" t="s">
+        <v>420</v>
+      </c>
+      <c r="H202" t="s">
+        <v>426</v>
+      </c>
+      <c r="I202" t="s">
+        <v>434</v>
+      </c>
+      <c r="J202" t="s">
+        <v>435</v>
+      </c>
+      <c r="K202" t="s">
+        <v>437</v>
+      </c>
+      <c r="L202" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203">
+        <v>25</v>
+      </c>
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203">
+        <v>12147631</v>
+      </c>
+      <c r="F203">
+        <v>8581299</v>
+      </c>
+      <c r="G203" t="s">
+        <v>421</v>
+      </c>
+      <c r="H203" t="s">
+        <v>426</v>
+      </c>
+      <c r="I203" t="s">
+        <v>434</v>
+      </c>
+      <c r="J203" t="s">
+        <v>435</v>
+      </c>
+      <c r="K203" t="s">
+        <v>437</v>
+      </c>
+      <c r="L203" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204">
+        <v>26</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>224</v>
+      </c>
+      <c r="E204">
+        <v>12148200</v>
+      </c>
+      <c r="F204">
+        <v>8581975</v>
+      </c>
+      <c r="G204" t="s">
+        <v>422</v>
+      </c>
+      <c r="H204" t="s">
+        <v>427</v>
+      </c>
+      <c r="I204" t="s">
+        <v>434</v>
+      </c>
+      <c r="J204" t="s">
+        <v>435</v>
+      </c>
+      <c r="K204" t="s">
+        <v>437</v>
+      </c>
+      <c r="L204" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205">
+        <v>27</v>
+      </c>
+      <c r="B205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>225</v>
+      </c>
+      <c r="E205">
+        <v>12149727</v>
+      </c>
+      <c r="F205">
+        <v>8583861</v>
+      </c>
+      <c r="G205" t="s">
+        <v>423</v>
+      </c>
+      <c r="H205" t="s">
+        <v>427</v>
+      </c>
+      <c r="I205" t="s">
+        <v>434</v>
+      </c>
+      <c r="J205" t="s">
+        <v>435</v>
+      </c>
+      <c r="K205" t="s">
+        <v>437</v>
+      </c>
+      <c r="L205" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
